--- a/GREAT/GREAT-Repeated.xlsx
+++ b/GREAT/GREAT-Repeated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/GREAT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/GREAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{87CD7BE8-A243-4465-8572-FF1B16E50E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00BED01E-C7C6-4353-85DA-F9DBDA5E29EA}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{87CD7BE8-A243-4465-8572-FF1B16E50E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA3F3CC8-4E35-4108-B1E6-09FF06CB4FE0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="6" r:id="rId1"/>
@@ -824,6 +824,15 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -836,8 +845,35 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -863,32 +899,8 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,18 +909,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -970,9 +970,9 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Details!$B$23:$B$27</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1017,9 +1017,9 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Details!$B$23:$B$27</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1064,9 +1064,9 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Details!$B$23:$B$27</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1111,9 +1111,9 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Details!$B$23:$B$27</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1159,9 +1159,9 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Details!$B$23:$B$27</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1337,9 +1337,9 @@
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Assessment!$B$15:$B$19</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1795,9 +1795,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1835,9 +1835,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1870,26 +1870,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1922,26 +1905,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2118,7 +2084,7 @@
   <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2132,64 +2098,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="K2" s="76" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="K2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
     </row>
     <row r="3" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="K3" s="75" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="K3" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
     </row>
     <row r="4" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="K4" s="74" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="K4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
     </row>
     <row r="5" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="20"/>
@@ -2349,7 +2315,7 @@
       <c r="B34" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" insertHyperlinks="0" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" insertHyperlinks="0"/>
   <mergeCells count="6">
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="K3:Q3"/>
@@ -2401,23 +2367,23 @@
       <c r="N1" s="28"/>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="K2" s="77" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="K2" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3"/>
@@ -2476,15 +2442,15 @@
       <c r="P5" s="62"/>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
       <c r="K6" s="63"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -2493,13 +2459,13 @@
       <c r="P6" s="64"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
       <c r="K7" s="63"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -2508,13 +2474,13 @@
       <c r="P7" s="64"/>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
       <c r="K8" s="63"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -2538,15 +2504,15 @@
       <c r="P9" s="64"/>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
       <c r="K10" s="63"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -2555,13 +2521,13 @@
       <c r="P10" s="64"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
       <c r="K11" s="63"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -2570,13 +2536,13 @@
       <c r="P11" s="64"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
       <c r="K12" s="63"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -2585,13 +2551,13 @@
       <c r="P12" s="64"/>
     </row>
     <row r="13" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
       <c r="K13" s="63"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -2600,13 +2566,13 @@
       <c r="P13" s="64"/>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
       <c r="K14" s="63"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -2657,16 +2623,16 @@
       <c r="P18" s="64"/>
     </row>
     <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="36" t="s">
         <v>26</v>
       </c>
@@ -2678,12 +2644,12 @@
       <c r="P19" s="64"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="62"/>
       <c r="K20" s="63"/>
       <c r="L20" s="8"/>
@@ -2693,12 +2659,12 @@
       <c r="P20" s="64"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="87"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
       <c r="H21" s="64"/>
       <c r="K21" s="63"/>
       <c r="L21" s="8"/>
@@ -2708,12 +2674,12 @@
       <c r="P21" s="64"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="87"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
       <c r="H22" s="64"/>
       <c r="K22" s="63"/>
       <c r="L22" s="8"/>
@@ -2723,12 +2689,12 @@
       <c r="P22" s="64"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="87"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="64"/>
       <c r="K23" s="63"/>
       <c r="L23" s="8"/>
@@ -2738,12 +2704,12 @@
       <c r="P23" s="64"/>
     </row>
     <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="88"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="65"/>
       <c r="K24" s="63"/>
       <c r="L24" s="8"/>
@@ -2761,16 +2727,16 @@
       <c r="P25" s="64"/>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91" t="s">
+      <c r="C26" s="80"/>
+      <c r="D26" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="36" t="s">
         <v>25</v>
       </c>
@@ -2782,12 +2748,12 @@
       <c r="P26" s="64"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="62"/>
       <c r="K27" s="63"/>
       <c r="L27" s="8"/>
@@ -2797,12 +2763,12 @@
       <c r="P27" s="64"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="87"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
       <c r="H28" s="64"/>
       <c r="K28" s="63"/>
       <c r="L28" s="8"/>
@@ -2812,12 +2778,12 @@
       <c r="P28" s="64"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="87"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
       <c r="H29" s="64"/>
       <c r="K29" s="66"/>
       <c r="L29" s="8"/>
@@ -2827,12 +2793,12 @@
       <c r="P29" s="64"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="87"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
       <c r="H30" s="64"/>
       <c r="K30" s="66"/>
       <c r="L30" s="8"/>
@@ -2842,12 +2808,12 @@
       <c r="P30" s="64"/>
     </row>
     <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="88"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="65"/>
       <c r="K31" s="66"/>
       <c r="L31" s="8"/>
@@ -3478,15 +3444,11 @@
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <autoFilter ref="K4:P4" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="30">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H14"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
@@ -3503,11 +3465,15 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3536,23 +3502,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="K2" s="77" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="K2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
     </row>
     <row r="3" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
@@ -6965,24 +6931,24 @@
   <sheetData>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -7022,10 +6988,10 @@
       <c r="E6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="92"/>
+      <c r="G6" s="96"/>
       <c r="H6"/>
       <c r="K6" s="6" t="s">
         <v>6</v>
@@ -7054,11 +7020,11 @@
         <f>IFERROR(AVERAGE(M7:M101),"")</f>
         <v/>
       </c>
-      <c r="F7" s="93" t="str">
+      <c r="F7" s="97" t="str">
         <f>IFERROR(LOOKUP(E7,$D$15:D$19,$B$15:$B$19),"")</f>
         <v/>
       </c>
-      <c r="G7" s="93"/>
+      <c r="G7" s="97"/>
       <c r="H7"/>
       <c r="K7" s="2" t="str">
         <f>IF(Data!K5&lt;&gt;"",Data!K5,"")</f>
@@ -7091,11 +7057,11 @@
         <f>IFERROR(MEDIAN(M6:M100),"")</f>
         <v/>
       </c>
-      <c r="F8" s="94" t="str">
+      <c r="F8" s="98" t="str">
         <f>IFERROR(LOOKUP(E8,$D$15:D$19,$B$15:$B$19),"")</f>
         <v/>
       </c>
-      <c r="G8" s="94"/>
+      <c r="G8" s="98"/>
       <c r="H8"/>
       <c r="K8" s="2" t="str">
         <f>IF(Data!K6&lt;&gt;"",Data!K6,"")</f>
@@ -7128,11 +7094,11 @@
         <f t="array" ref="E9">IF(M$7:M$101="","",MIN(M$7:M$101))</f>
         <v/>
       </c>
-      <c r="F9" s="94" t="str">
+      <c r="F9" s="98" t="str">
         <f>IFERROR(LOOKUP(E9,$D$15:D$19,$B$15:$B$19),"")</f>
         <v/>
       </c>
-      <c r="G9" s="94"/>
+      <c r="G9" s="98"/>
       <c r="H9"/>
       <c r="K9" s="2" t="str">
         <f>IF(Data!K7&lt;&gt;"",Data!K7,"")</f>
@@ -7290,7 +7256,7 @@
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="96" t="str">
+      <c r="E15" s="74" t="str">
         <f t="array" ref="E15">IF(OR($B15="",$D15=""),"",COUNTIFS($N$7:$N$101,$B15))</f>
         <v/>
       </c>
@@ -7327,7 +7293,7 @@
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="97" t="str">
+      <c r="E16" s="75" t="str">
         <f t="array" ref="E16">IF(OR($B16="",$D16=""),"",COUNTIFS($N$7:$N$101,$B16))</f>
         <v/>
       </c>
@@ -7364,7 +7330,7 @@
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="97" t="str">
+      <c r="E17" s="75" t="str">
         <f t="array" ref="E17">IF(OR($B17="",$D17=""),"",COUNTIFS($N$7:$N$101,$B17))</f>
         <v/>
       </c>
@@ -7401,7 +7367,7 @@
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="97" t="str">
+      <c r="E18" s="75" t="str">
         <f t="array" ref="E18">IF(OR($B18="",$D18=""),"",COUNTIFS($N$7:$N$101,$B18))</f>
         <v/>
       </c>
@@ -7437,7 +7403,7 @@
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="98" t="str">
+      <c r="E19" s="76" t="str">
         <f t="array" ref="E19">IF(OR($B19="",$D19=""),"",COUNTIFS($N$7:$N$101,$B19))</f>
         <v/>
       </c>
@@ -9013,25 +8979,25 @@
   <sheetData>
     <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="77" t="s">
+      <c r="K2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
       <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -9343,7 +9309,7 @@
       <c r="B15" s="68"/>
       <c r="C15" s="50"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="96" t="str">
+      <c r="E15" s="74" t="str">
         <f t="array" ref="E15">IF(OR($B15="",$D15=""),"",COUNTIF($N$7:$N$107,B15))</f>
         <v/>
       </c>
@@ -9377,7 +9343,7 @@
       <c r="B16" s="25"/>
       <c r="C16" s="51"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="97" t="str">
+      <c r="E16" s="75" t="str">
         <f t="array" ref="E16">IF(OR($B16="",$D16=""),"",COUNTIF($N$7:$N$107,B16))</f>
         <v/>
       </c>
@@ -9411,7 +9377,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="51"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="97" t="str">
+      <c r="E17" s="75" t="str">
         <f t="array" ref="E17">IF(OR($B17="",$D17=""),"",COUNTIF($N$7:$N$107,B17))</f>
         <v/>
       </c>
@@ -9445,7 +9411,7 @@
       <c r="B18" s="25"/>
       <c r="C18" s="51"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="97" t="str">
+      <c r="E18" s="75" t="str">
         <f t="array" ref="E18">IF(OR($B18="",$D18=""),"",COUNTIF($N$7:$N$107,B18))</f>
         <v/>
       </c>
@@ -9478,7 +9444,7 @@
       <c r="B19" s="25"/>
       <c r="C19" s="51"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="97" t="str">
+      <c r="E19" s="75" t="str">
         <f t="array" ref="E19">IF(OR($B19="",$D19=""),"",COUNTIF($N$7:$N$107,B19))</f>
         <v/>
       </c>
@@ -9511,7 +9477,7 @@
       <c r="B20" s="25"/>
       <c r="C20" s="51"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="97" t="str">
+      <c r="E20" s="75" t="str">
         <f t="array" ref="E20">IF(OR($B20="",$D20=""),"",COUNTIF($N$7:$N$107,B20))</f>
         <v/>
       </c>
@@ -9544,7 +9510,7 @@
       <c r="B21" s="25"/>
       <c r="C21" s="51"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="97" t="str">
+      <c r="E21" s="75" t="str">
         <f t="array" ref="E21">IF(OR($B21="",$D21=""),"",COUNTIF($N$7:$N$107,B21))</f>
         <v/>
       </c>
@@ -9577,7 +9543,7 @@
       <c r="B22" s="25"/>
       <c r="C22" s="51"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="97" t="str">
+      <c r="E22" s="75" t="str">
         <f t="array" ref="E22">IF(OR($B22="",$D22=""),"",COUNTIF($N$7:$N$107,B22))</f>
         <v/>
       </c>
@@ -9610,7 +9576,7 @@
       <c r="B23" s="25"/>
       <c r="C23" s="51"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="97" t="str">
+      <c r="E23" s="75" t="str">
         <f t="array" ref="E23">IF(OR($B23="",$D23=""),"",COUNTIF($N$7:$N$107,B23))</f>
         <v/>
       </c>
@@ -9643,7 +9609,7 @@
       <c r="B24" s="25"/>
       <c r="C24" s="51"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="97" t="str">
+      <c r="E24" s="75" t="str">
         <f t="array" ref="E24">IF(OR($B24="",$D24=""),"",COUNTIF($N$7:$N$107,B24))</f>
         <v/>
       </c>
@@ -9676,7 +9642,7 @@
       <c r="B25" s="69"/>
       <c r="C25" s="53"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="98" t="str">
+      <c r="E25" s="76" t="str">
         <f t="array" ref="E25">IF(OR($B25="",$D25=""),"",COUNTIF($N$7:$N$107,B25))</f>
         <v/>
       </c>

--- a/GREAT/GREAT-Repeated.xlsx
+++ b/GREAT/GREAT-Repeated.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/GREAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{87CD7BE8-A243-4465-8572-FF1B16E50E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA3F3CC8-4E35-4108-B1E6-09FF06CB4FE0}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{87CD7BE8-A243-4465-8572-FF1B16E50E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C546A5AF-8728-482F-8BD2-78D181739E4E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="6" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
-    <sheet name="Details" sheetId="4" r:id="rId3"/>
+    <sheet name="Performance" sheetId="4" r:id="rId3"/>
     <sheet name="Assessment" sheetId="7" r:id="rId4"/>
     <sheet name="Grading" sheetId="2" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>Percent</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Provides analyses aggregated across the learning outcomes</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/GREAT</t>
-  </si>
-  <si>
     <t>cwendorf@uwsp.edu</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
   </si>
   <si>
     <t>Data:</t>
-  </si>
-  <si>
-    <t>Details:</t>
   </si>
   <si>
     <t>Assessment:</t>
@@ -243,9 +237,6 @@
     <t>Analyses of the Overall Grades</t>
   </si>
   <si>
-    <t>Version: 2.211231</t>
-  </si>
-  <si>
     <t>Min %</t>
   </si>
   <si>
@@ -263,6 +254,18 @@
   <si>
     <t>Definitions of Items and Levels</t>
   </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/GREAT</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/blob/main/GREAT/Wendorf-EmbeddedAssessmentMethodology.pdf</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
+  </si>
+  <si>
+    <t>Performance:</t>
+  </si>
 </sst>
 </file>
 
@@ -272,7 +275,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +356,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -612,7 +623,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
@@ -823,7 +834,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -833,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -845,35 +855,8 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -898,6 +881,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -962,7 +972,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Details!$D$22</c:f>
+              <c:f>Performance!$D$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -971,12 +981,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Details!$B$23:$B$27</c:f>
+              <c:f>Performance!$B$23:$B$27</c:f>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Details!$D$23:$D$27</c:f>
+              <c:f>Performance!$D$23:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1009,7 +1019,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Details!$E$22</c:f>
+              <c:f>Performance!$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1018,12 +1028,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Details!$B$23:$B$27</c:f>
+              <c:f>Performance!$B$23:$B$27</c:f>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Details!$E$23:$E$27</c:f>
+              <c:f>Performance!$E$23:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1056,7 +1066,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Details!$F$22</c:f>
+              <c:f>Performance!$F$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1065,12 +1075,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Details!$B$23:$B$27</c:f>
+              <c:f>Performance!$B$23:$B$27</c:f>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Details!$F$23:$F$27</c:f>
+              <c:f>Performance!$F$23:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1103,7 +1113,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Details!$G$22</c:f>
+              <c:f>Performance!$G$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1112,12 +1122,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Details!$B$23:$B$27</c:f>
+              <c:f>Performance!$B$23:$B$27</c:f>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Details!$G$23:$G$27</c:f>
+              <c:f>Performance!$G$23:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1150,7 +1160,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Details!$H$22</c:f>
+              <c:f>Performance!$H$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1160,12 +1170,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Details!$B$23:$B$27</c:f>
+              <c:f>Performance!$B$23:$B$27</c:f>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Details!$H$23:$H$27</c:f>
+              <c:f>Performance!$H$23:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1794,6 +1804,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2083,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:Q4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2098,64 +2112,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="K2" s="79" t="s">
+      <c r="B2" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="K2" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
     </row>
     <row r="3" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="K3" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="K3" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
     </row>
     <row r="4" spans="2:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="K4" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="K4" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
     </row>
     <row r="5" spans="2:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="20"/>
@@ -2171,7 +2185,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
@@ -2182,7 +2196,7 @@
         <v>33</v>
       </c>
       <c r="K8" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
@@ -2190,12 +2204,12 @@
         <v>34</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K10" s="73" t="s">
-        <v>38</v>
+      <c r="K10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
@@ -2203,7 +2217,7 @@
     </row>
     <row r="12" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>17</v>
@@ -2211,7 +2225,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>15</v>
@@ -2222,7 +2236,7 @@
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>21</v>
@@ -2233,7 +2247,7 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>23</v>
@@ -2244,32 +2258,32 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>37</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>22</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
@@ -2277,23 +2291,23 @@
         <v>31</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="21" t="s">
-        <v>38</v>
+      <c r="K24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
@@ -2328,11 +2342,9 @@
     <hyperlink ref="K4" r:id="rId1" xr:uid="{5067229E-0EE1-4218-AFF0-ED6C983AE781}"/>
     <hyperlink ref="K18" r:id="rId2" xr:uid="{CD0A4350-DE8E-46D2-A642-B0C8510F006B}"/>
     <hyperlink ref="K17" r:id="rId3" xr:uid="{8A2E7B4E-E341-418D-A436-2CB9DA7214DB}"/>
-    <hyperlink ref="K24" r:id="rId4" xr:uid="{0034B066-EB4E-4954-894C-0337337A014E}"/>
-    <hyperlink ref="K10" r:id="rId5" xr:uid="{61640C1B-E51E-4C16-9547-578D351153D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;LGREAT: Grading and Embedded Assessment Tool&amp;RDesign: Single Factor, Within-Subjects</oddHeader>
   </headerFooter>
@@ -2367,23 +2379,23 @@
       <c r="N1" s="28"/>
     </row>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="K2" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
+      <c r="B2" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="K2" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3"/>
@@ -2395,7 +2407,7 @@
     </row>
     <row r="4" spans="2:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2442,15 +2454,15 @@
       <c r="P5" s="62"/>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
+      <c r="B6" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
       <c r="K6" s="63"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -2459,13 +2471,13 @@
       <c r="P6" s="64"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
       <c r="K7" s="63"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -2474,13 +2486,13 @@
       <c r="P7" s="64"/>
     </row>
     <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
       <c r="K8" s="63"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -2504,15 +2516,15 @@
       <c r="P9" s="64"/>
     </row>
     <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
+      <c r="B10" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
       <c r="K10" s="63"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -2521,13 +2533,13 @@
       <c r="P10" s="64"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
       <c r="K11" s="63"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -2536,13 +2548,13 @@
       <c r="P11" s="64"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
       <c r="K12" s="63"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -2551,13 +2563,13 @@
       <c r="P12" s="64"/>
     </row>
     <row r="13" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
       <c r="K13" s="63"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -2566,13 +2578,13 @@
       <c r="P13" s="64"/>
     </row>
     <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
       <c r="K14" s="63"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -2598,7 +2610,7 @@
     </row>
     <row r="17" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -2623,16 +2635,16 @@
       <c r="P18" s="64"/>
     </row>
     <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
+      <c r="B19" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="36" t="s">
         <v>26</v>
       </c>
@@ -2644,12 +2656,12 @@
       <c r="P19" s="64"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="87"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="62"/>
       <c r="K20" s="63"/>
       <c r="L20" s="8"/>
@@ -2659,12 +2671,12 @@
       <c r="P20" s="64"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="85"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
       <c r="H21" s="64"/>
       <c r="K21" s="63"/>
       <c r="L21" s="8"/>
@@ -2674,12 +2686,12 @@
       <c r="P21" s="64"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="85"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="64"/>
       <c r="K22" s="63"/>
       <c r="L22" s="8"/>
@@ -2689,12 +2701,12 @@
       <c r="P22" s="64"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="85"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="64"/>
       <c r="K23" s="63"/>
       <c r="L23" s="8"/>
@@ -2704,12 +2716,12 @@
       <c r="P23" s="64"/>
     </row>
     <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="86"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="65"/>
       <c r="K24" s="63"/>
       <c r="L24" s="8"/>
@@ -2727,16 +2739,16 @@
       <c r="P25" s="64"/>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
       <c r="H26" s="36" t="s">
         <v>25</v>
       </c>
@@ -2748,12 +2760,12 @@
       <c r="P26" s="64"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="87"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
       <c r="H27" s="62"/>
       <c r="K27" s="63"/>
       <c r="L27" s="8"/>
@@ -2763,12 +2775,12 @@
       <c r="P27" s="64"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="85"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="64"/>
       <c r="K28" s="63"/>
       <c r="L28" s="8"/>
@@ -2778,12 +2790,12 @@
       <c r="P28" s="64"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="85"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="64"/>
       <c r="K29" s="66"/>
       <c r="L29" s="8"/>
@@ -2793,12 +2805,12 @@
       <c r="P29" s="64"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="85"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="64"/>
       <c r="K30" s="66"/>
       <c r="L30" s="8"/>
@@ -2808,12 +2820,12 @@
       <c r="P30" s="64"/>
     </row>
     <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="86"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
       <c r="H31" s="65"/>
       <c r="K31" s="66"/>
       <c r="L31" s="8"/>
@@ -3444,11 +3456,15 @@
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <autoFilter ref="K4:P4" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="30">
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H8"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
@@ -3465,15 +3481,11 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H8"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3502,23 +3514,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="K2" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="K2" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
     </row>
     <row r="3" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
@@ -3537,10 +3549,10 @@
     </row>
     <row r="4" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L4" s="23"/>
       <c r="M4" s="23"/>
@@ -3655,7 +3667,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="47" t="str">
@@ -3831,7 +3843,7 @@
     </row>
     <row r="12" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K12" s="56" t="str">
         <f>IF(Data!K10&lt;&gt;"",Data!K10,"")</f>
@@ -4650,7 +4662,7 @@
     </row>
     <row r="30" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K30" s="56" t="str">
         <f>IF(Data!K28&lt;&gt;"",Data!K28,"")</f>
@@ -6931,24 +6943,24 @@
   <sheetData>
     <row r="2" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
+      <c r="K2" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
@@ -6965,12 +6977,12 @@
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -6988,10 +7000,10 @@
       <c r="E6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="95"/>
       <c r="H6"/>
       <c r="K6" s="6" t="s">
         <v>6</v>
@@ -7020,18 +7032,18 @@
         <f>IFERROR(AVERAGE(M7:M101),"")</f>
         <v/>
       </c>
-      <c r="F7" s="97" t="str">
+      <c r="F7" s="96" t="str">
         <f>IFERROR(LOOKUP(E7,$D$15:D$19,$B$15:$B$19),"")</f>
         <v/>
       </c>
-      <c r="G7" s="97"/>
+      <c r="G7" s="96"/>
       <c r="H7"/>
       <c r="K7" s="2" t="str">
         <f>IF(Data!K5&lt;&gt;"",Data!K5,"")</f>
         <v/>
       </c>
       <c r="L7" s="3" t="str">
-        <f>IF(Details!L7&lt;&gt;"",SUM(Details!L7:P7),"")</f>
+        <f>IF(Performance!L7&lt;&gt;"",SUM(Performance!L7:P7),"")</f>
         <v/>
       </c>
       <c r="M7" s="34" t="str">
@@ -7046,7 +7058,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="47" t="str">
@@ -7057,18 +7069,18 @@
         <f>IFERROR(MEDIAN(M6:M100),"")</f>
         <v/>
       </c>
-      <c r="F8" s="98" t="str">
+      <c r="F8" s="97" t="str">
         <f>IFERROR(LOOKUP(E8,$D$15:D$19,$B$15:$B$19),"")</f>
         <v/>
       </c>
-      <c r="G8" s="98"/>
+      <c r="G8" s="97"/>
       <c r="H8"/>
       <c r="K8" s="2" t="str">
         <f>IF(Data!K6&lt;&gt;"",Data!K6,"")</f>
         <v/>
       </c>
       <c r="L8" s="3" t="str">
-        <f>IF(Details!L8&lt;&gt;"",SUM(Details!L8:P8),"")</f>
+        <f>IF(Performance!L8&lt;&gt;"",SUM(Performance!L8:P8),"")</f>
         <v/>
       </c>
       <c r="M8" s="34" t="str">
@@ -7094,18 +7106,18 @@
         <f t="array" ref="E9">IF(M$7:M$101="","",MIN(M$7:M$101))</f>
         <v/>
       </c>
-      <c r="F9" s="98" t="str">
+      <c r="F9" s="97" t="str">
         <f>IFERROR(LOOKUP(E9,$D$15:D$19,$B$15:$B$19),"")</f>
         <v/>
       </c>
-      <c r="G9" s="98"/>
+      <c r="G9" s="97"/>
       <c r="H9"/>
       <c r="K9" s="2" t="str">
         <f>IF(Data!K7&lt;&gt;"",Data!K7,"")</f>
         <v/>
       </c>
       <c r="L9" s="3" t="str">
-        <f>IF(Details!L9&lt;&gt;"",SUM(Details!L9:P9),"")</f>
+        <f>IF(Performance!L9&lt;&gt;"",SUM(Performance!L9:P9),"")</f>
         <v/>
       </c>
       <c r="M9" s="34" t="str">
@@ -7131,17 +7143,17 @@
         <f t="array" ref="E10">IF(M$7:M$101="","",MAX(M$7:M$101))</f>
         <v/>
       </c>
-      <c r="F10" s="95" t="str">
+      <c r="F10" s="94" t="str">
         <f>IFERROR(LOOKUP(E10,$D$15:D$19,$B$15:$B$19),"")</f>
         <v/>
       </c>
-      <c r="G10" s="95"/>
+      <c r="G10" s="94"/>
       <c r="K10" s="2" t="str">
         <f>IF(Data!K8&lt;&gt;"",Data!K8,"")</f>
         <v/>
       </c>
       <c r="L10" s="3" t="str">
-        <f>IF(Details!L10&lt;&gt;"",SUM(Details!L10:P10),"")</f>
+        <f>IF(Performance!L10&lt;&gt;"",SUM(Performance!L10:P10),"")</f>
         <v/>
       </c>
       <c r="M10" s="34" t="str">
@@ -7160,7 +7172,7 @@
         <v/>
       </c>
       <c r="L11" s="3" t="str">
-        <f>IF(Details!L11&lt;&gt;"",SUM(Details!L11:P11),"")</f>
+        <f>IF(Performance!L11&lt;&gt;"",SUM(Performance!L11:P11),"")</f>
         <v/>
       </c>
       <c r="M11" s="34" t="str">
@@ -7175,14 +7187,14 @@
     <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>IF(Data!K10&lt;&gt;"",Data!K10,"")</f>
         <v/>
       </c>
       <c r="L12" s="3" t="str">
-        <f>IF(Details!L12&lt;&gt;"",SUM(Details!L12:P12),"")</f>
+        <f>IF(Performance!L12&lt;&gt;"",SUM(Performance!L12:P12),"")</f>
         <v/>
       </c>
       <c r="M12" s="34" t="str">
@@ -7201,7 +7213,7 @@
         <v/>
       </c>
       <c r="L13" s="3" t="str">
-        <f>IF(Details!L13&lt;&gt;"",SUM(Details!L13:P13),"")</f>
+        <f>IF(Performance!L13&lt;&gt;"",SUM(Performance!L13:P13),"")</f>
         <v/>
       </c>
       <c r="M13" s="34" t="str">
@@ -7220,7 +7232,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>8</v>
@@ -7229,14 +7241,14 @@
         <v>9</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>IF(Data!K12&lt;&gt;"",Data!K12,"")</f>
         <v/>
       </c>
       <c r="L14" s="3" t="str">
-        <f>IF(Details!L14&lt;&gt;"",SUM(Details!L14:P14),"")</f>
+        <f>IF(Performance!L14&lt;&gt;"",SUM(Performance!L14:P14),"")</f>
         <v/>
       </c>
       <c r="M14" s="34" t="str">
@@ -7256,7 +7268,7 @@
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="74" t="str">
+      <c r="E15" s="73" t="str">
         <f t="array" ref="E15">IF(OR($B15="",$D15=""),"",COUNTIFS($N$7:$N$101,$B15))</f>
         <v/>
       </c>
@@ -7273,7 +7285,7 @@
         <v/>
       </c>
       <c r="L15" s="3" t="str">
-        <f>IF(Details!L15&lt;&gt;"",SUM(Details!L15:P15),"")</f>
+        <f>IF(Performance!L15&lt;&gt;"",SUM(Performance!L15:P15),"")</f>
         <v/>
       </c>
       <c r="M15" s="34" t="str">
@@ -7293,7 +7305,7 @@
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="75" t="str">
+      <c r="E16" s="74" t="str">
         <f t="array" ref="E16">IF(OR($B16="",$D16=""),"",COUNTIFS($N$7:$N$101,$B16))</f>
         <v/>
       </c>
@@ -7310,7 +7322,7 @@
         <v/>
       </c>
       <c r="L16" s="3" t="str">
-        <f>IF(Details!L16&lt;&gt;"",SUM(Details!L16:P16),"")</f>
+        <f>IF(Performance!L16&lt;&gt;"",SUM(Performance!L16:P16),"")</f>
         <v/>
       </c>
       <c r="M16" s="34" t="str">
@@ -7330,7 +7342,7 @@
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="75" t="str">
+      <c r="E17" s="74" t="str">
         <f t="array" ref="E17">IF(OR($B17="",$D17=""),"",COUNTIFS($N$7:$N$101,$B17))</f>
         <v/>
       </c>
@@ -7347,7 +7359,7 @@
         <v/>
       </c>
       <c r="L17" s="3" t="str">
-        <f>IF(Details!L17&lt;&gt;"",SUM(Details!L17:P17),"")</f>
+        <f>IF(Performance!L17&lt;&gt;"",SUM(Performance!L17:P17),"")</f>
         <v/>
       </c>
       <c r="M17" s="34" t="str">
@@ -7367,7 +7379,7 @@
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="75" t="str">
+      <c r="E18" s="74" t="str">
         <f t="array" ref="E18">IF(OR($B18="",$D18=""),"",COUNTIFS($N$7:$N$101,$B18))</f>
         <v/>
       </c>
@@ -7384,7 +7396,7 @@
         <v/>
       </c>
       <c r="L18" s="3" t="str">
-        <f>IF(Details!L18&lt;&gt;"",SUM(Details!L18:P18),"")</f>
+        <f>IF(Performance!L18&lt;&gt;"",SUM(Performance!L18:P18),"")</f>
         <v/>
       </c>
       <c r="M18" s="34" t="str">
@@ -7403,7 +7415,7 @@
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="76" t="str">
+      <c r="E19" s="75" t="str">
         <f t="array" ref="E19">IF(OR($B19="",$D19=""),"",COUNTIFS($N$7:$N$101,$B19))</f>
         <v/>
       </c>
@@ -7420,7 +7432,7 @@
         <v/>
       </c>
       <c r="L19" s="3" t="str">
-        <f>IF(Details!L19&lt;&gt;"",SUM(Details!L19:P19),"")</f>
+        <f>IF(Performance!L19&lt;&gt;"",SUM(Performance!L19:P19),"")</f>
         <v/>
       </c>
       <c r="M19" s="34" t="str">
@@ -7453,7 +7465,7 @@
         <v/>
       </c>
       <c r="L20" s="3" t="str">
-        <f>IF(Details!L20&lt;&gt;"",SUM(Details!L20:P20),"")</f>
+        <f>IF(Performance!L20&lt;&gt;"",SUM(Performance!L20:P20),"")</f>
         <v/>
       </c>
       <c r="M20" s="34" t="str">
@@ -7471,7 +7483,7 @@
         <v/>
       </c>
       <c r="L21" s="3" t="str">
-        <f>IF(Details!L21&lt;&gt;"",SUM(Details!L21:P21),"")</f>
+        <f>IF(Performance!L21&lt;&gt;"",SUM(Performance!L21:P21),"")</f>
         <v/>
       </c>
       <c r="M21" s="34" t="str">
@@ -7485,7 +7497,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" s="34"/>
       <c r="K22" s="2" t="str">
@@ -7493,7 +7505,7 @@
         <v/>
       </c>
       <c r="L22" s="3" t="str">
-        <f>IF(Details!L22&lt;&gt;"",SUM(Details!L22:P22),"")</f>
+        <f>IF(Performance!L22&lt;&gt;"",SUM(Performance!L22:P22),"")</f>
         <v/>
       </c>
       <c r="M22" s="34" t="str">
@@ -7513,7 +7525,7 @@
         <v/>
       </c>
       <c r="L23" s="3" t="str">
-        <f>IF(Details!L23&lt;&gt;"",SUM(Details!L23:P23),"")</f>
+        <f>IF(Performance!L23&lt;&gt;"",SUM(Performance!L23:P23),"")</f>
         <v/>
       </c>
       <c r="M23" s="34" t="str">
@@ -7533,7 +7545,7 @@
         <v/>
       </c>
       <c r="L24" s="3" t="str">
-        <f>IF(Details!L24&lt;&gt;"",SUM(Details!L24:P24),"")</f>
+        <f>IF(Performance!L24&lt;&gt;"",SUM(Performance!L24:P24),"")</f>
         <v/>
       </c>
       <c r="M24" s="34" t="str">
@@ -7553,7 +7565,7 @@
         <v/>
       </c>
       <c r="L25" s="3" t="str">
-        <f>IF(Details!L25&lt;&gt;"",SUM(Details!L25:P25),"")</f>
+        <f>IF(Performance!L25&lt;&gt;"",SUM(Performance!L25:P25),"")</f>
         <v/>
       </c>
       <c r="M25" s="34" t="str">
@@ -7573,7 +7585,7 @@
         <v/>
       </c>
       <c r="L26" s="3" t="str">
-        <f>IF(Details!L26&lt;&gt;"",SUM(Details!L26:P26),"")</f>
+        <f>IF(Performance!L26&lt;&gt;"",SUM(Performance!L26:P26),"")</f>
         <v/>
       </c>
       <c r="M26" s="34" t="str">
@@ -7591,7 +7603,7 @@
         <v/>
       </c>
       <c r="L27" s="3" t="str">
-        <f>IF(Details!L27&lt;&gt;"",SUM(Details!L27:P27),"")</f>
+        <f>IF(Performance!L27&lt;&gt;"",SUM(Performance!L27:P27),"")</f>
         <v/>
       </c>
       <c r="M27" s="34" t="str">
@@ -7613,7 +7625,7 @@
         <v/>
       </c>
       <c r="L28" s="3" t="str">
-        <f>IF(Details!L28&lt;&gt;"",SUM(Details!L28:P28),"")</f>
+        <f>IF(Performance!L28&lt;&gt;"",SUM(Performance!L28:P28),"")</f>
         <v/>
       </c>
       <c r="M28" s="34" t="str">
@@ -7631,7 +7643,7 @@
         <v/>
       </c>
       <c r="L29" s="3" t="str">
-        <f>IF(Details!L29&lt;&gt;"",SUM(Details!L29:P29),"")</f>
+        <f>IF(Performance!L29&lt;&gt;"",SUM(Performance!L29:P29),"")</f>
         <v/>
       </c>
       <c r="M29" s="34" t="str">
@@ -7649,7 +7661,7 @@
         <v/>
       </c>
       <c r="L30" s="3" t="str">
-        <f>IF(Details!L30&lt;&gt;"",SUM(Details!L30:P30),"")</f>
+        <f>IF(Performance!L30&lt;&gt;"",SUM(Performance!L30:P30),"")</f>
         <v/>
       </c>
       <c r="M30" s="34" t="str">
@@ -7667,7 +7679,7 @@
         <v/>
       </c>
       <c r="L31" s="3" t="str">
-        <f>IF(Details!L31&lt;&gt;"",SUM(Details!L31:P31),"")</f>
+        <f>IF(Performance!L31&lt;&gt;"",SUM(Performance!L31:P31),"")</f>
         <v/>
       </c>
       <c r="M31" s="34" t="str">
@@ -7685,7 +7697,7 @@
         <v/>
       </c>
       <c r="L32" s="3" t="str">
-        <f>IF(Details!L32&lt;&gt;"",SUM(Details!L32:P32),"")</f>
+        <f>IF(Performance!L32&lt;&gt;"",SUM(Performance!L32:P32),"")</f>
         <v/>
       </c>
       <c r="M32" s="34" t="str">
@@ -7703,7 +7715,7 @@
         <v/>
       </c>
       <c r="L33" s="3" t="str">
-        <f>IF(Details!L33&lt;&gt;"",SUM(Details!L33:P33),"")</f>
+        <f>IF(Performance!L33&lt;&gt;"",SUM(Performance!L33:P33),"")</f>
         <v/>
       </c>
       <c r="M33" s="34" t="str">
@@ -7721,7 +7733,7 @@
         <v/>
       </c>
       <c r="L34" s="3" t="str">
-        <f>IF(Details!L34&lt;&gt;"",SUM(Details!L34:P34),"")</f>
+        <f>IF(Performance!L34&lt;&gt;"",SUM(Performance!L34:P34),"")</f>
         <v/>
       </c>
       <c r="M34" s="34" t="str">
@@ -7739,7 +7751,7 @@
         <v/>
       </c>
       <c r="L35" s="3" t="str">
-        <f>IF(Details!L35&lt;&gt;"",SUM(Details!L35:P35),"")</f>
+        <f>IF(Performance!L35&lt;&gt;"",SUM(Performance!L35:P35),"")</f>
         <v/>
       </c>
       <c r="M35" s="34" t="str">
@@ -7757,7 +7769,7 @@
         <v/>
       </c>
       <c r="L36" s="3" t="str">
-        <f>IF(Details!L36&lt;&gt;"",SUM(Details!L36:P36),"")</f>
+        <f>IF(Performance!L36&lt;&gt;"",SUM(Performance!L36:P36),"")</f>
         <v/>
       </c>
       <c r="M36" s="34" t="str">
@@ -7775,7 +7787,7 @@
         <v/>
       </c>
       <c r="L37" s="3" t="str">
-        <f>IF(Details!L37&lt;&gt;"",SUM(Details!L37:P37),"")</f>
+        <f>IF(Performance!L37&lt;&gt;"",SUM(Performance!L37:P37),"")</f>
         <v/>
       </c>
       <c r="M37" s="34" t="str">
@@ -7793,7 +7805,7 @@
         <v/>
       </c>
       <c r="L38" s="3" t="str">
-        <f>IF(Details!L38&lt;&gt;"",SUM(Details!L38:P38),"")</f>
+        <f>IF(Performance!L38&lt;&gt;"",SUM(Performance!L38:P38),"")</f>
         <v/>
       </c>
       <c r="M38" s="34" t="str">
@@ -7811,7 +7823,7 @@
         <v/>
       </c>
       <c r="L39" s="3" t="str">
-        <f>IF(Details!L39&lt;&gt;"",SUM(Details!L39:P39),"")</f>
+        <f>IF(Performance!L39&lt;&gt;"",SUM(Performance!L39:P39),"")</f>
         <v/>
       </c>
       <c r="M39" s="34" t="str">
@@ -7829,7 +7841,7 @@
         <v/>
       </c>
       <c r="L40" s="3" t="str">
-        <f>IF(Details!L40&lt;&gt;"",SUM(Details!L40:P40),"")</f>
+        <f>IF(Performance!L40&lt;&gt;"",SUM(Performance!L40:P40),"")</f>
         <v/>
       </c>
       <c r="M40" s="34" t="str">
@@ -7847,7 +7859,7 @@
         <v/>
       </c>
       <c r="L41" s="3" t="str">
-        <f>IF(Details!L41&lt;&gt;"",SUM(Details!L41:P41),"")</f>
+        <f>IF(Performance!L41&lt;&gt;"",SUM(Performance!L41:P41),"")</f>
         <v/>
       </c>
       <c r="M41" s="34" t="str">
@@ -7865,7 +7877,7 @@
         <v/>
       </c>
       <c r="L42" s="3" t="str">
-        <f>IF(Details!L42&lt;&gt;"",SUM(Details!L42:P42),"")</f>
+        <f>IF(Performance!L42&lt;&gt;"",SUM(Performance!L42:P42),"")</f>
         <v/>
       </c>
       <c r="M42" s="34" t="str">
@@ -7883,7 +7895,7 @@
         <v/>
       </c>
       <c r="L43" s="3" t="str">
-        <f>IF(Details!L43&lt;&gt;"",SUM(Details!L43:P43),"")</f>
+        <f>IF(Performance!L43&lt;&gt;"",SUM(Performance!L43:P43),"")</f>
         <v/>
       </c>
       <c r="M43" s="34" t="str">
@@ -7901,7 +7913,7 @@
         <v/>
       </c>
       <c r="L44" s="3" t="str">
-        <f>IF(Details!L44&lt;&gt;"",SUM(Details!L44:P44),"")</f>
+        <f>IF(Performance!L44&lt;&gt;"",SUM(Performance!L44:P44),"")</f>
         <v/>
       </c>
       <c r="M44" s="34" t="str">
@@ -7919,7 +7931,7 @@
         <v/>
       </c>
       <c r="L45" s="3" t="str">
-        <f>IF(Details!L45&lt;&gt;"",SUM(Details!L45:P45),"")</f>
+        <f>IF(Performance!L45&lt;&gt;"",SUM(Performance!L45:P45),"")</f>
         <v/>
       </c>
       <c r="M45" s="34" t="str">
@@ -7937,7 +7949,7 @@
         <v/>
       </c>
       <c r="L46" s="3" t="str">
-        <f>IF(Details!L46&lt;&gt;"",SUM(Details!L46:P46),"")</f>
+        <f>IF(Performance!L46&lt;&gt;"",SUM(Performance!L46:P46),"")</f>
         <v/>
       </c>
       <c r="M46" s="34" t="str">
@@ -7955,7 +7967,7 @@
         <v/>
       </c>
       <c r="L47" s="3" t="str">
-        <f>IF(Details!L47&lt;&gt;"",SUM(Details!L47:P47),"")</f>
+        <f>IF(Performance!L47&lt;&gt;"",SUM(Performance!L47:P47),"")</f>
         <v/>
       </c>
       <c r="M47" s="34" t="str">
@@ -7973,7 +7985,7 @@
         <v/>
       </c>
       <c r="L48" s="3" t="str">
-        <f>IF(Details!L48&lt;&gt;"",SUM(Details!L48:P48),"")</f>
+        <f>IF(Performance!L48&lt;&gt;"",SUM(Performance!L48:P48),"")</f>
         <v/>
       </c>
       <c r="M48" s="34" t="str">
@@ -7991,7 +8003,7 @@
         <v/>
       </c>
       <c r="L49" s="3" t="str">
-        <f>IF(Details!L49&lt;&gt;"",SUM(Details!L49:P49),"")</f>
+        <f>IF(Performance!L49&lt;&gt;"",SUM(Performance!L49:P49),"")</f>
         <v/>
       </c>
       <c r="M49" s="34" t="str">
@@ -8009,7 +8021,7 @@
         <v/>
       </c>
       <c r="L50" s="3" t="str">
-        <f>IF(Details!L50&lt;&gt;"",SUM(Details!L50:P50),"")</f>
+        <f>IF(Performance!L50&lt;&gt;"",SUM(Performance!L50:P50),"")</f>
         <v/>
       </c>
       <c r="M50" s="34" t="str">
@@ -8027,7 +8039,7 @@
         <v/>
       </c>
       <c r="L51" s="3" t="str">
-        <f>IF(Details!L51&lt;&gt;"",SUM(Details!L51:P51),"")</f>
+        <f>IF(Performance!L51&lt;&gt;"",SUM(Performance!L51:P51),"")</f>
         <v/>
       </c>
       <c r="M51" s="34" t="str">
@@ -8045,7 +8057,7 @@
         <v/>
       </c>
       <c r="L52" s="3" t="str">
-        <f>IF(Details!L52&lt;&gt;"",SUM(Details!L52:P52),"")</f>
+        <f>IF(Performance!L52&lt;&gt;"",SUM(Performance!L52:P52),"")</f>
         <v/>
       </c>
       <c r="M52" s="34" t="str">
@@ -8063,7 +8075,7 @@
         <v/>
       </c>
       <c r="L53" s="3" t="str">
-        <f>IF(Details!L53&lt;&gt;"",SUM(Details!L53:P53),"")</f>
+        <f>IF(Performance!L53&lt;&gt;"",SUM(Performance!L53:P53),"")</f>
         <v/>
       </c>
       <c r="M53" s="34" t="str">
@@ -8081,7 +8093,7 @@
         <v/>
       </c>
       <c r="L54" s="3" t="str">
-        <f>IF(Details!L54&lt;&gt;"",SUM(Details!L54:P54),"")</f>
+        <f>IF(Performance!L54&lt;&gt;"",SUM(Performance!L54:P54),"")</f>
         <v/>
       </c>
       <c r="M54" s="34" t="str">
@@ -8099,7 +8111,7 @@
         <v/>
       </c>
       <c r="L55" s="3" t="str">
-        <f>IF(Details!L55&lt;&gt;"",SUM(Details!L55:P55),"")</f>
+        <f>IF(Performance!L55&lt;&gt;"",SUM(Performance!L55:P55),"")</f>
         <v/>
       </c>
       <c r="M55" s="34" t="str">
@@ -8117,7 +8129,7 @@
         <v/>
       </c>
       <c r="L56" s="3" t="str">
-        <f>IF(Details!L56&lt;&gt;"",SUM(Details!L56:P56),"")</f>
+        <f>IF(Performance!L56&lt;&gt;"",SUM(Performance!L56:P56),"")</f>
         <v/>
       </c>
       <c r="M56" s="34" t="str">
@@ -8135,7 +8147,7 @@
         <v/>
       </c>
       <c r="L57" s="3" t="str">
-        <f>IF(Details!L57&lt;&gt;"",SUM(Details!L57:P57),"")</f>
+        <f>IF(Performance!L57&lt;&gt;"",SUM(Performance!L57:P57),"")</f>
         <v/>
       </c>
       <c r="M57" s="34" t="str">
@@ -8153,7 +8165,7 @@
         <v/>
       </c>
       <c r="L58" s="3" t="str">
-        <f>IF(Details!L58&lt;&gt;"",SUM(Details!L58:P58),"")</f>
+        <f>IF(Performance!L58&lt;&gt;"",SUM(Performance!L58:P58),"")</f>
         <v/>
       </c>
       <c r="M58" s="34" t="str">
@@ -8171,7 +8183,7 @@
         <v/>
       </c>
       <c r="L59" s="3" t="str">
-        <f>IF(Details!L59&lt;&gt;"",SUM(Details!L59:P59),"")</f>
+        <f>IF(Performance!L59&lt;&gt;"",SUM(Performance!L59:P59),"")</f>
         <v/>
       </c>
       <c r="M59" s="34" t="str">
@@ -8189,7 +8201,7 @@
         <v/>
       </c>
       <c r="L60" s="3" t="str">
-        <f>IF(Details!L60&lt;&gt;"",SUM(Details!L60:P60),"")</f>
+        <f>IF(Performance!L60&lt;&gt;"",SUM(Performance!L60:P60),"")</f>
         <v/>
       </c>
       <c r="M60" s="34" t="str">
@@ -8207,7 +8219,7 @@
         <v/>
       </c>
       <c r="L61" s="3" t="str">
-        <f>IF(Details!L61&lt;&gt;"",SUM(Details!L61:P61),"")</f>
+        <f>IF(Performance!L61&lt;&gt;"",SUM(Performance!L61:P61),"")</f>
         <v/>
       </c>
       <c r="M61" s="34" t="str">
@@ -8225,7 +8237,7 @@
         <v/>
       </c>
       <c r="L62" s="3" t="str">
-        <f>IF(Details!L62&lt;&gt;"",SUM(Details!L62:P62),"")</f>
+        <f>IF(Performance!L62&lt;&gt;"",SUM(Performance!L62:P62),"")</f>
         <v/>
       </c>
       <c r="M62" s="34" t="str">
@@ -8243,7 +8255,7 @@
         <v/>
       </c>
       <c r="L63" s="3" t="str">
-        <f>IF(Details!L63&lt;&gt;"",SUM(Details!L63:P63),"")</f>
+        <f>IF(Performance!L63&lt;&gt;"",SUM(Performance!L63:P63),"")</f>
         <v/>
       </c>
       <c r="M63" s="34" t="str">
@@ -8261,7 +8273,7 @@
         <v/>
       </c>
       <c r="L64" s="3" t="str">
-        <f>IF(Details!L64&lt;&gt;"",SUM(Details!L64:P64),"")</f>
+        <f>IF(Performance!L64&lt;&gt;"",SUM(Performance!L64:P64),"")</f>
         <v/>
       </c>
       <c r="M64" s="34" t="str">
@@ -8279,7 +8291,7 @@
         <v/>
       </c>
       <c r="L65" s="3" t="str">
-        <f>IF(Details!L65&lt;&gt;"",SUM(Details!L65:P65),"")</f>
+        <f>IF(Performance!L65&lt;&gt;"",SUM(Performance!L65:P65),"")</f>
         <v/>
       </c>
       <c r="M65" s="34" t="str">
@@ -8297,7 +8309,7 @@
         <v/>
       </c>
       <c r="L66" s="3" t="str">
-        <f>IF(Details!L66&lt;&gt;"",SUM(Details!L66:P66),"")</f>
+        <f>IF(Performance!L66&lt;&gt;"",SUM(Performance!L66:P66),"")</f>
         <v/>
       </c>
       <c r="M66" s="34" t="str">
@@ -8315,7 +8327,7 @@
         <v/>
       </c>
       <c r="L67" s="3" t="str">
-        <f>IF(Details!L67&lt;&gt;"",SUM(Details!L67:P67),"")</f>
+        <f>IF(Performance!L67&lt;&gt;"",SUM(Performance!L67:P67),"")</f>
         <v/>
       </c>
       <c r="M67" s="34" t="str">
@@ -8333,7 +8345,7 @@
         <v/>
       </c>
       <c r="L68" s="3" t="str">
-        <f>IF(Details!L68&lt;&gt;"",SUM(Details!L68:P68),"")</f>
+        <f>IF(Performance!L68&lt;&gt;"",SUM(Performance!L68:P68),"")</f>
         <v/>
       </c>
       <c r="M68" s="34" t="str">
@@ -8351,7 +8363,7 @@
         <v/>
       </c>
       <c r="L69" s="3" t="str">
-        <f>IF(Details!L69&lt;&gt;"",SUM(Details!L69:P69),"")</f>
+        <f>IF(Performance!L69&lt;&gt;"",SUM(Performance!L69:P69),"")</f>
         <v/>
       </c>
       <c r="M69" s="34" t="str">
@@ -8369,7 +8381,7 @@
         <v/>
       </c>
       <c r="L70" s="3" t="str">
-        <f>IF(Details!L70&lt;&gt;"",SUM(Details!L70:P70),"")</f>
+        <f>IF(Performance!L70&lt;&gt;"",SUM(Performance!L70:P70),"")</f>
         <v/>
       </c>
       <c r="M70" s="34" t="str">
@@ -8387,7 +8399,7 @@
         <v/>
       </c>
       <c r="L71" s="3" t="str">
-        <f>IF(Details!L71&lt;&gt;"",SUM(Details!L71:P71),"")</f>
+        <f>IF(Performance!L71&lt;&gt;"",SUM(Performance!L71:P71),"")</f>
         <v/>
       </c>
       <c r="M71" s="34" t="str">
@@ -8405,7 +8417,7 @@
         <v/>
       </c>
       <c r="L72" s="3" t="str">
-        <f>IF(Details!L72&lt;&gt;"",SUM(Details!L72:P72),"")</f>
+        <f>IF(Performance!L72&lt;&gt;"",SUM(Performance!L72:P72),"")</f>
         <v/>
       </c>
       <c r="M72" s="34" t="str">
@@ -8423,7 +8435,7 @@
         <v/>
       </c>
       <c r="L73" s="3" t="str">
-        <f>IF(Details!L73&lt;&gt;"",SUM(Details!L73:P73),"")</f>
+        <f>IF(Performance!L73&lt;&gt;"",SUM(Performance!L73:P73),"")</f>
         <v/>
       </c>
       <c r="M73" s="34" t="str">
@@ -8441,7 +8453,7 @@
         <v/>
       </c>
       <c r="L74" s="3" t="str">
-        <f>IF(Details!L74&lt;&gt;"",SUM(Details!L74:P74),"")</f>
+        <f>IF(Performance!L74&lt;&gt;"",SUM(Performance!L74:P74),"")</f>
         <v/>
       </c>
       <c r="M74" s="34" t="str">
@@ -8459,7 +8471,7 @@
         <v/>
       </c>
       <c r="L75" s="3" t="str">
-        <f>IF(Details!L75&lt;&gt;"",SUM(Details!L75:P75),"")</f>
+        <f>IF(Performance!L75&lt;&gt;"",SUM(Performance!L75:P75),"")</f>
         <v/>
       </c>
       <c r="M75" s="34" t="str">
@@ -8477,7 +8489,7 @@
         <v/>
       </c>
       <c r="L76" s="3" t="str">
-        <f>IF(Details!L76&lt;&gt;"",SUM(Details!L76:P76),"")</f>
+        <f>IF(Performance!L76&lt;&gt;"",SUM(Performance!L76:P76),"")</f>
         <v/>
       </c>
       <c r="M76" s="34" t="str">
@@ -8495,7 +8507,7 @@
         <v/>
       </c>
       <c r="L77" s="3" t="str">
-        <f>IF(Details!L77&lt;&gt;"",SUM(Details!L77:P77),"")</f>
+        <f>IF(Performance!L77&lt;&gt;"",SUM(Performance!L77:P77),"")</f>
         <v/>
       </c>
       <c r="M77" s="34" t="str">
@@ -8513,7 +8525,7 @@
         <v/>
       </c>
       <c r="L78" s="3" t="str">
-        <f>IF(Details!L78&lt;&gt;"",SUM(Details!L78:P78),"")</f>
+        <f>IF(Performance!L78&lt;&gt;"",SUM(Performance!L78:P78),"")</f>
         <v/>
       </c>
       <c r="M78" s="34" t="str">
@@ -8531,7 +8543,7 @@
         <v/>
       </c>
       <c r="L79" s="3" t="str">
-        <f>IF(Details!L79&lt;&gt;"",SUM(Details!L79:P79),"")</f>
+        <f>IF(Performance!L79&lt;&gt;"",SUM(Performance!L79:P79),"")</f>
         <v/>
       </c>
       <c r="M79" s="34" t="str">
@@ -8549,7 +8561,7 @@
         <v/>
       </c>
       <c r="L80" s="3" t="str">
-        <f>IF(Details!L80&lt;&gt;"",SUM(Details!L80:P80),"")</f>
+        <f>IF(Performance!L80&lt;&gt;"",SUM(Performance!L80:P80),"")</f>
         <v/>
       </c>
       <c r="M80" s="34" t="str">
@@ -8567,7 +8579,7 @@
         <v/>
       </c>
       <c r="L81" s="3" t="str">
-        <f>IF(Details!L81&lt;&gt;"",SUM(Details!L81:P81),"")</f>
+        <f>IF(Performance!L81&lt;&gt;"",SUM(Performance!L81:P81),"")</f>
         <v/>
       </c>
       <c r="M81" s="34" t="str">
@@ -8585,7 +8597,7 @@
         <v/>
       </c>
       <c r="L82" s="3" t="str">
-        <f>IF(Details!L82&lt;&gt;"",SUM(Details!L82:P82),"")</f>
+        <f>IF(Performance!L82&lt;&gt;"",SUM(Performance!L82:P82),"")</f>
         <v/>
       </c>
       <c r="M82" s="34" t="str">
@@ -8603,7 +8615,7 @@
         <v/>
       </c>
       <c r="L83" s="3" t="str">
-        <f>IF(Details!L83&lt;&gt;"",SUM(Details!L83:P83),"")</f>
+        <f>IF(Performance!L83&lt;&gt;"",SUM(Performance!L83:P83),"")</f>
         <v/>
       </c>
       <c r="M83" s="34" t="str">
@@ -8621,7 +8633,7 @@
         <v/>
       </c>
       <c r="L84" s="3" t="str">
-        <f>IF(Details!L84&lt;&gt;"",SUM(Details!L84:P84),"")</f>
+        <f>IF(Performance!L84&lt;&gt;"",SUM(Performance!L84:P84),"")</f>
         <v/>
       </c>
       <c r="M84" s="34" t="str">
@@ -8639,7 +8651,7 @@
         <v/>
       </c>
       <c r="L85" s="3" t="str">
-        <f>IF(Details!L85&lt;&gt;"",SUM(Details!L85:P85),"")</f>
+        <f>IF(Performance!L85&lt;&gt;"",SUM(Performance!L85:P85),"")</f>
         <v/>
       </c>
       <c r="M85" s="34" t="str">
@@ -8657,7 +8669,7 @@
         <v/>
       </c>
       <c r="L86" s="3" t="str">
-        <f>IF(Details!L86&lt;&gt;"",SUM(Details!L86:P86),"")</f>
+        <f>IF(Performance!L86&lt;&gt;"",SUM(Performance!L86:P86),"")</f>
         <v/>
       </c>
       <c r="M86" s="34" t="str">
@@ -8675,7 +8687,7 @@
         <v/>
       </c>
       <c r="L87" s="3" t="str">
-        <f>IF(Details!L87&lt;&gt;"",SUM(Details!L87:P87),"")</f>
+        <f>IF(Performance!L87&lt;&gt;"",SUM(Performance!L87:P87),"")</f>
         <v/>
       </c>
       <c r="M87" s="34" t="str">
@@ -8693,7 +8705,7 @@
         <v/>
       </c>
       <c r="L88" s="3" t="str">
-        <f>IF(Details!L88&lt;&gt;"",SUM(Details!L88:P88),"")</f>
+        <f>IF(Performance!L88&lt;&gt;"",SUM(Performance!L88:P88),"")</f>
         <v/>
       </c>
       <c r="M88" s="34" t="str">
@@ -8711,7 +8723,7 @@
         <v/>
       </c>
       <c r="L89" s="3" t="str">
-        <f>IF(Details!L89&lt;&gt;"",SUM(Details!L89:P89),"")</f>
+        <f>IF(Performance!L89&lt;&gt;"",SUM(Performance!L89:P89),"")</f>
         <v/>
       </c>
       <c r="M89" s="34" t="str">
@@ -8729,7 +8741,7 @@
         <v/>
       </c>
       <c r="L90" s="3" t="str">
-        <f>IF(Details!L90&lt;&gt;"",SUM(Details!L90:P90),"")</f>
+        <f>IF(Performance!L90&lt;&gt;"",SUM(Performance!L90:P90),"")</f>
         <v/>
       </c>
       <c r="M90" s="34" t="str">
@@ -8747,7 +8759,7 @@
         <v/>
       </c>
       <c r="L91" s="3" t="str">
-        <f>IF(Details!L91&lt;&gt;"",SUM(Details!L91:P91),"")</f>
+        <f>IF(Performance!L91&lt;&gt;"",SUM(Performance!L91:P91),"")</f>
         <v/>
       </c>
       <c r="M91" s="34" t="str">
@@ -8765,7 +8777,7 @@
         <v/>
       </c>
       <c r="L92" s="3" t="str">
-        <f>IF(Details!L92&lt;&gt;"",SUM(Details!L92:P92),"")</f>
+        <f>IF(Performance!L92&lt;&gt;"",SUM(Performance!L92:P92),"")</f>
         <v/>
       </c>
       <c r="M92" s="34" t="str">
@@ -8783,7 +8795,7 @@
         <v/>
       </c>
       <c r="L93" s="3" t="str">
-        <f>IF(Details!L93&lt;&gt;"",SUM(Details!L93:P93),"")</f>
+        <f>IF(Performance!L93&lt;&gt;"",SUM(Performance!L93:P93),"")</f>
         <v/>
       </c>
       <c r="M93" s="34" t="str">
@@ -8801,7 +8813,7 @@
         <v/>
       </c>
       <c r="L94" s="3" t="str">
-        <f>IF(Details!L94&lt;&gt;"",SUM(Details!L94:P94),"")</f>
+        <f>IF(Performance!L94&lt;&gt;"",SUM(Performance!L94:P94),"")</f>
         <v/>
       </c>
       <c r="M94" s="34" t="str">
@@ -8819,7 +8831,7 @@
         <v/>
       </c>
       <c r="L95" s="3" t="str">
-        <f>IF(Details!L95&lt;&gt;"",SUM(Details!L95:P95),"")</f>
+        <f>IF(Performance!L95&lt;&gt;"",SUM(Performance!L95:P95),"")</f>
         <v/>
       </c>
       <c r="M95" s="34" t="str">
@@ -8837,7 +8849,7 @@
         <v/>
       </c>
       <c r="L96" s="3" t="str">
-        <f>IF(Details!L96&lt;&gt;"",SUM(Details!L96:P96),"")</f>
+        <f>IF(Performance!L96&lt;&gt;"",SUM(Performance!L96:P96),"")</f>
         <v/>
       </c>
       <c r="M96" s="34" t="str">
@@ -8855,7 +8867,7 @@
         <v/>
       </c>
       <c r="L97" s="3" t="str">
-        <f>IF(Details!L97&lt;&gt;"",SUM(Details!L97:P97),"")</f>
+        <f>IF(Performance!L97&lt;&gt;"",SUM(Performance!L97:P97),"")</f>
         <v/>
       </c>
       <c r="M97" s="34" t="str">
@@ -8873,7 +8885,7 @@
         <v/>
       </c>
       <c r="L98" s="3" t="str">
-        <f>IF(Details!L98&lt;&gt;"",SUM(Details!L98:P98),"")</f>
+        <f>IF(Performance!L98&lt;&gt;"",SUM(Performance!L98:P98),"")</f>
         <v/>
       </c>
       <c r="M98" s="34" t="str">
@@ -8891,7 +8903,7 @@
         <v/>
       </c>
       <c r="L99" s="3" t="str">
-        <f>IF(Details!L99&lt;&gt;"",SUM(Details!L99:P99),"")</f>
+        <f>IF(Performance!L99&lt;&gt;"",SUM(Performance!L99:P99),"")</f>
         <v/>
       </c>
       <c r="M99" s="34" t="str">
@@ -8909,7 +8921,7 @@
         <v/>
       </c>
       <c r="L100" s="3" t="str">
-        <f>IF(Details!L100&lt;&gt;"",SUM(Details!L100:P100),"")</f>
+        <f>IF(Performance!L100&lt;&gt;"",SUM(Performance!L100:P100),"")</f>
         <v/>
       </c>
       <c r="M100" s="34" t="str">
@@ -8927,7 +8939,7 @@
         <v/>
       </c>
       <c r="L101" s="3" t="str">
-        <f>IF(Details!L101&lt;&gt;"",SUM(Details!L101:P101),"")</f>
+        <f>IF(Performance!L101&lt;&gt;"",SUM(Performance!L101:P101),"")</f>
         <v/>
       </c>
       <c r="M101" s="34" t="str">
@@ -8979,25 +8991,25 @@
   <sheetData>
     <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
-      <c r="B2" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
+      <c r="B2" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
+      <c r="K2" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
       <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -9015,7 +9027,7 @@
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -9026,7 +9038,7 @@
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
       <c r="K4" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9092,7 +9104,7 @@
         <v/>
       </c>
       <c r="L7" s="50" t="str">
-        <f>IF(Details!L7&lt;&gt;"",SUM(Details!L7:P7),"")</f>
+        <f>IF(Performance!L7&lt;&gt;"",SUM(Performance!L7:P7),"")</f>
         <v/>
       </c>
       <c r="M7" s="45" t="str">
@@ -9107,7 +9119,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="47" t="str">
@@ -9127,7 +9139,7 @@
         <v/>
       </c>
       <c r="L8" s="51" t="str">
-        <f>IF(Details!L8&lt;&gt;"",SUM(Details!L8:P8),"")</f>
+        <f>IF(Performance!L8&lt;&gt;"",SUM(Performance!L8:P8),"")</f>
         <v/>
       </c>
       <c r="M8" s="47" t="str">
@@ -9162,7 +9174,7 @@
         <v/>
       </c>
       <c r="L9" s="51" t="str">
-        <f>IF(Details!L9&lt;&gt;"",SUM(Details!L9:P9),"")</f>
+        <f>IF(Performance!L9&lt;&gt;"",SUM(Performance!L9:P9),"")</f>
         <v/>
       </c>
       <c r="M9" s="47" t="str">
@@ -9197,7 +9209,7 @@
         <v/>
       </c>
       <c r="L10" s="51" t="str">
-        <f>IF(Details!L10&lt;&gt;"",SUM(Details!L10:P10),"")</f>
+        <f>IF(Performance!L10&lt;&gt;"",SUM(Performance!L10:P10),"")</f>
         <v/>
       </c>
       <c r="M10" s="47" t="str">
@@ -9216,7 +9228,7 @@
         <v/>
       </c>
       <c r="L11" s="51" t="str">
-        <f>IF(Details!L11&lt;&gt;"",SUM(Details!L11:P11),"")</f>
+        <f>IF(Performance!L11&lt;&gt;"",SUM(Performance!L11:P11),"")</f>
         <v/>
       </c>
       <c r="M11" s="47" t="str">
@@ -9231,14 +9243,14 @@
     <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K12" s="56" t="str">
         <f>IF(Data!K10&lt;&gt;"",Data!K10,"")</f>
         <v/>
       </c>
       <c r="L12" s="51" t="str">
-        <f>IF(Details!L12&lt;&gt;"",SUM(Details!L12:P12),"")</f>
+        <f>IF(Performance!L12&lt;&gt;"",SUM(Performance!L12:P12),"")</f>
         <v/>
       </c>
       <c r="M12" s="47" t="str">
@@ -9257,7 +9269,7 @@
         <v/>
       </c>
       <c r="L13" s="51" t="str">
-        <f>IF(Details!L13&lt;&gt;"",SUM(Details!L13:P13),"")</f>
+        <f>IF(Performance!L13&lt;&gt;"",SUM(Performance!L13:P13),"")</f>
         <v/>
       </c>
       <c r="M13" s="47" t="str">
@@ -9276,7 +9288,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>8</v>
@@ -9285,14 +9297,14 @@
         <v>9</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K14" s="56" t="str">
         <f>IF(Data!K12&lt;&gt;"",Data!K12,"")</f>
         <v/>
       </c>
       <c r="L14" s="51" t="str">
-        <f>IF(Details!L14&lt;&gt;"",SUM(Details!L14:P14),"")</f>
+        <f>IF(Performance!L14&lt;&gt;"",SUM(Performance!L14:P14),"")</f>
         <v/>
       </c>
       <c r="M14" s="47" t="str">
@@ -9309,7 +9321,7 @@
       <c r="B15" s="68"/>
       <c r="C15" s="50"/>
       <c r="D15" s="26"/>
-      <c r="E15" s="74" t="str">
+      <c r="E15" s="73" t="str">
         <f t="array" ref="E15">IF(OR($B15="",$D15=""),"",COUNTIF($N$7:$N$107,B15))</f>
         <v/>
       </c>
@@ -9326,7 +9338,7 @@
         <v/>
       </c>
       <c r="L15" s="51" t="str">
-        <f>IF(Details!L15&lt;&gt;"",SUM(Details!L15:P15),"")</f>
+        <f>IF(Performance!L15&lt;&gt;"",SUM(Performance!L15:P15),"")</f>
         <v/>
       </c>
       <c r="M15" s="47" t="str">
@@ -9343,7 +9355,7 @@
       <c r="B16" s="25"/>
       <c r="C16" s="51"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="75" t="str">
+      <c r="E16" s="74" t="str">
         <f t="array" ref="E16">IF(OR($B16="",$D16=""),"",COUNTIF($N$7:$N$107,B16))</f>
         <v/>
       </c>
@@ -9360,7 +9372,7 @@
         <v/>
       </c>
       <c r="L16" s="51" t="str">
-        <f>IF(Details!L16&lt;&gt;"",SUM(Details!L16:P16),"")</f>
+        <f>IF(Performance!L16&lt;&gt;"",SUM(Performance!L16:P16),"")</f>
         <v/>
       </c>
       <c r="M16" s="47" t="str">
@@ -9377,7 +9389,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="51"/>
       <c r="D17" s="24"/>
-      <c r="E17" s="75" t="str">
+      <c r="E17" s="74" t="str">
         <f t="array" ref="E17">IF(OR($B17="",$D17=""),"",COUNTIF($N$7:$N$107,B17))</f>
         <v/>
       </c>
@@ -9394,7 +9406,7 @@
         <v/>
       </c>
       <c r="L17" s="51" t="str">
-        <f>IF(Details!L17&lt;&gt;"",SUM(Details!L17:P17),"")</f>
+        <f>IF(Performance!L17&lt;&gt;"",SUM(Performance!L17:P17),"")</f>
         <v/>
       </c>
       <c r="M17" s="47" t="str">
@@ -9411,7 +9423,7 @@
       <c r="B18" s="25"/>
       <c r="C18" s="51"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="75" t="str">
+      <c r="E18" s="74" t="str">
         <f t="array" ref="E18">IF(OR($B18="",$D18=""),"",COUNTIF($N$7:$N$107,B18))</f>
         <v/>
       </c>
@@ -9428,7 +9440,7 @@
         <v/>
       </c>
       <c r="L18" s="51" t="str">
-        <f>IF(Details!L18&lt;&gt;"",SUM(Details!L18:P18),"")</f>
+        <f>IF(Performance!L18&lt;&gt;"",SUM(Performance!L18:P18),"")</f>
         <v/>
       </c>
       <c r="M18" s="47" t="str">
@@ -9444,7 +9456,7 @@
       <c r="B19" s="25"/>
       <c r="C19" s="51"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="75" t="str">
+      <c r="E19" s="74" t="str">
         <f t="array" ref="E19">IF(OR($B19="",$D19=""),"",COUNTIF($N$7:$N$107,B19))</f>
         <v/>
       </c>
@@ -9461,7 +9473,7 @@
         <v/>
       </c>
       <c r="L19" s="51" t="str">
-        <f>IF(Details!L19&lt;&gt;"",SUM(Details!L19:P19),"")</f>
+        <f>IF(Performance!L19&lt;&gt;"",SUM(Performance!L19:P19),"")</f>
         <v/>
       </c>
       <c r="M19" s="47" t="str">
@@ -9477,7 +9489,7 @@
       <c r="B20" s="25"/>
       <c r="C20" s="51"/>
       <c r="D20" s="24"/>
-      <c r="E20" s="75" t="str">
+      <c r="E20" s="74" t="str">
         <f t="array" ref="E20">IF(OR($B20="",$D20=""),"",COUNTIF($N$7:$N$107,B20))</f>
         <v/>
       </c>
@@ -9494,7 +9506,7 @@
         <v/>
       </c>
       <c r="L20" s="51" t="str">
-        <f>IF(Details!L20&lt;&gt;"",SUM(Details!L20:P20),"")</f>
+        <f>IF(Performance!L20&lt;&gt;"",SUM(Performance!L20:P20),"")</f>
         <v/>
       </c>
       <c r="M20" s="47" t="str">
@@ -9510,7 +9522,7 @@
       <c r="B21" s="25"/>
       <c r="C21" s="51"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="75" t="str">
+      <c r="E21" s="74" t="str">
         <f t="array" ref="E21">IF(OR($B21="",$D21=""),"",COUNTIF($N$7:$N$107,B21))</f>
         <v/>
       </c>
@@ -9527,7 +9539,7 @@
         <v/>
       </c>
       <c r="L21" s="51" t="str">
-        <f>IF(Details!L21&lt;&gt;"",SUM(Details!L21:P21),"")</f>
+        <f>IF(Performance!L21&lt;&gt;"",SUM(Performance!L21:P21),"")</f>
         <v/>
       </c>
       <c r="M21" s="47" t="str">
@@ -9543,7 +9555,7 @@
       <c r="B22" s="25"/>
       <c r="C22" s="51"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="75" t="str">
+      <c r="E22" s="74" t="str">
         <f t="array" ref="E22">IF(OR($B22="",$D22=""),"",COUNTIF($N$7:$N$107,B22))</f>
         <v/>
       </c>
@@ -9560,7 +9572,7 @@
         <v/>
       </c>
       <c r="L22" s="51" t="str">
-        <f>IF(Details!L22&lt;&gt;"",SUM(Details!L22:P22),"")</f>
+        <f>IF(Performance!L22&lt;&gt;"",SUM(Performance!L22:P22),"")</f>
         <v/>
       </c>
       <c r="M22" s="47" t="str">
@@ -9576,7 +9588,7 @@
       <c r="B23" s="25"/>
       <c r="C23" s="51"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="75" t="str">
+      <c r="E23" s="74" t="str">
         <f t="array" ref="E23">IF(OR($B23="",$D23=""),"",COUNTIF($N$7:$N$107,B23))</f>
         <v/>
       </c>
@@ -9593,7 +9605,7 @@
         <v/>
       </c>
       <c r="L23" s="51" t="str">
-        <f>IF(Details!L23&lt;&gt;"",SUM(Details!L23:P23),"")</f>
+        <f>IF(Performance!L23&lt;&gt;"",SUM(Performance!L23:P23),"")</f>
         <v/>
       </c>
       <c r="M23" s="47" t="str">
@@ -9609,7 +9621,7 @@
       <c r="B24" s="25"/>
       <c r="C24" s="51"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="75" t="str">
+      <c r="E24" s="74" t="str">
         <f t="array" ref="E24">IF(OR($B24="",$D24=""),"",COUNTIF($N$7:$N$107,B24))</f>
         <v/>
       </c>
@@ -9626,7 +9638,7 @@
         <v/>
       </c>
       <c r="L24" s="51" t="str">
-        <f>IF(Details!L24&lt;&gt;"",SUM(Details!L24:P24),"")</f>
+        <f>IF(Performance!L24&lt;&gt;"",SUM(Performance!L24:P24),"")</f>
         <v/>
       </c>
       <c r="M24" s="47" t="str">
@@ -9642,7 +9654,7 @@
       <c r="B25" s="69"/>
       <c r="C25" s="53"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="76" t="str">
+      <c r="E25" s="75" t="str">
         <f t="array" ref="E25">IF(OR($B25="",$D25=""),"",COUNTIF($N$7:$N$107,B25))</f>
         <v/>
       </c>
@@ -9659,7 +9671,7 @@
         <v/>
       </c>
       <c r="L25" s="51" t="str">
-        <f>IF(Details!L25&lt;&gt;"",SUM(Details!L25:P25),"")</f>
+        <f>IF(Performance!L25&lt;&gt;"",SUM(Performance!L25:P25),"")</f>
         <v/>
       </c>
       <c r="M25" s="47" t="str">
@@ -9694,7 +9706,7 @@
         <v/>
       </c>
       <c r="L26" s="51" t="str">
-        <f>IF(Details!L26&lt;&gt;"",SUM(Details!L26:P26),"")</f>
+        <f>IF(Performance!L26&lt;&gt;"",SUM(Performance!L26:P26),"")</f>
         <v/>
       </c>
       <c r="M26" s="47" t="str">
@@ -9712,7 +9724,7 @@
         <v/>
       </c>
       <c r="L27" s="51" t="str">
-        <f>IF(Details!L27&lt;&gt;"",SUM(Details!L27:P27),"")</f>
+        <f>IF(Performance!L27&lt;&gt;"",SUM(Performance!L27:P27),"")</f>
         <v/>
       </c>
       <c r="M27" s="47" t="str">
@@ -9726,14 +9738,14 @@
     </row>
     <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K28" s="56" t="str">
         <f>IF(Data!K26&lt;&gt;"",Data!K26,"")</f>
         <v/>
       </c>
       <c r="L28" s="51" t="str">
-        <f>IF(Details!L28&lt;&gt;"",SUM(Details!L28:P28),"")</f>
+        <f>IF(Performance!L28&lt;&gt;"",SUM(Performance!L28:P28),"")</f>
         <v/>
       </c>
       <c r="M28" s="47" t="str">
@@ -9751,7 +9763,7 @@
         <v/>
       </c>
       <c r="L29" s="51" t="str">
-        <f>IF(Details!L29&lt;&gt;"",SUM(Details!L29:P29),"")</f>
+        <f>IF(Performance!L29&lt;&gt;"",SUM(Performance!L29:P29),"")</f>
         <v/>
       </c>
       <c r="M29" s="47" t="str">
@@ -9769,7 +9781,7 @@
         <v/>
       </c>
       <c r="L30" s="51" t="str">
-        <f>IF(Details!L30&lt;&gt;"",SUM(Details!L30:P30),"")</f>
+        <f>IF(Performance!L30&lt;&gt;"",SUM(Performance!L30:P30),"")</f>
         <v/>
       </c>
       <c r="M30" s="47" t="str">
@@ -9787,7 +9799,7 @@
         <v/>
       </c>
       <c r="L31" s="51" t="str">
-        <f>IF(Details!L31&lt;&gt;"",SUM(Details!L31:P31),"")</f>
+        <f>IF(Performance!L31&lt;&gt;"",SUM(Performance!L31:P31),"")</f>
         <v/>
       </c>
       <c r="M31" s="47" t="str">
@@ -9805,7 +9817,7 @@
         <v/>
       </c>
       <c r="L32" s="51" t="str">
-        <f>IF(Details!L32&lt;&gt;"",SUM(Details!L32:P32),"")</f>
+        <f>IF(Performance!L32&lt;&gt;"",SUM(Performance!L32:P32),"")</f>
         <v/>
       </c>
       <c r="M32" s="47" t="str">
@@ -9823,7 +9835,7 @@
         <v/>
       </c>
       <c r="L33" s="51" t="str">
-        <f>IF(Details!L33&lt;&gt;"",SUM(Details!L33:P33),"")</f>
+        <f>IF(Performance!L33&lt;&gt;"",SUM(Performance!L33:P33),"")</f>
         <v/>
       </c>
       <c r="M33" s="47" t="str">
@@ -9841,7 +9853,7 @@
         <v/>
       </c>
       <c r="L34" s="51" t="str">
-        <f>IF(Details!L34&lt;&gt;"",SUM(Details!L34:P34),"")</f>
+        <f>IF(Performance!L34&lt;&gt;"",SUM(Performance!L34:P34),"")</f>
         <v/>
       </c>
       <c r="M34" s="47" t="str">
@@ -9859,7 +9871,7 @@
         <v/>
       </c>
       <c r="L35" s="51" t="str">
-        <f>IF(Details!L35&lt;&gt;"",SUM(Details!L35:P35),"")</f>
+        <f>IF(Performance!L35&lt;&gt;"",SUM(Performance!L35:P35),"")</f>
         <v/>
       </c>
       <c r="M35" s="47" t="str">
@@ -9877,7 +9889,7 @@
         <v/>
       </c>
       <c r="L36" s="51" t="str">
-        <f>IF(Details!L36&lt;&gt;"",SUM(Details!L36:P36),"")</f>
+        <f>IF(Performance!L36&lt;&gt;"",SUM(Performance!L36:P36),"")</f>
         <v/>
       </c>
       <c r="M36" s="47" t="str">
@@ -9895,7 +9907,7 @@
         <v/>
       </c>
       <c r="L37" s="51" t="str">
-        <f>IF(Details!L37&lt;&gt;"",SUM(Details!L37:P37),"")</f>
+        <f>IF(Performance!L37&lt;&gt;"",SUM(Performance!L37:P37),"")</f>
         <v/>
       </c>
       <c r="M37" s="47" t="str">
@@ -9913,7 +9925,7 @@
         <v/>
       </c>
       <c r="L38" s="51" t="str">
-        <f>IF(Details!L38&lt;&gt;"",SUM(Details!L38:P38),"")</f>
+        <f>IF(Performance!L38&lt;&gt;"",SUM(Performance!L38:P38),"")</f>
         <v/>
       </c>
       <c r="M38" s="47" t="str">
@@ -9931,7 +9943,7 @@
         <v/>
       </c>
       <c r="L39" s="51" t="str">
-        <f>IF(Details!L39&lt;&gt;"",SUM(Details!L39:P39),"")</f>
+        <f>IF(Performance!L39&lt;&gt;"",SUM(Performance!L39:P39),"")</f>
         <v/>
       </c>
       <c r="M39" s="47" t="str">
@@ -9949,7 +9961,7 @@
         <v/>
       </c>
       <c r="L40" s="51" t="str">
-        <f>IF(Details!L40&lt;&gt;"",SUM(Details!L40:P40),"")</f>
+        <f>IF(Performance!L40&lt;&gt;"",SUM(Performance!L40:P40),"")</f>
         <v/>
       </c>
       <c r="M40" s="47" t="str">
@@ -9967,7 +9979,7 @@
         <v/>
       </c>
       <c r="L41" s="51" t="str">
-        <f>IF(Details!L41&lt;&gt;"",SUM(Details!L41:P41),"")</f>
+        <f>IF(Performance!L41&lt;&gt;"",SUM(Performance!L41:P41),"")</f>
         <v/>
       </c>
       <c r="M41" s="47" t="str">
@@ -9985,7 +9997,7 @@
         <v/>
       </c>
       <c r="L42" s="51" t="str">
-        <f>IF(Details!L42&lt;&gt;"",SUM(Details!L42:P42),"")</f>
+        <f>IF(Performance!L42&lt;&gt;"",SUM(Performance!L42:P42),"")</f>
         <v/>
       </c>
       <c r="M42" s="47" t="str">
@@ -10003,7 +10015,7 @@
         <v/>
       </c>
       <c r="L43" s="51" t="str">
-        <f>IF(Details!L43&lt;&gt;"",SUM(Details!L43:P43),"")</f>
+        <f>IF(Performance!L43&lt;&gt;"",SUM(Performance!L43:P43),"")</f>
         <v/>
       </c>
       <c r="M43" s="47" t="str">
@@ -10021,7 +10033,7 @@
         <v/>
       </c>
       <c r="L44" s="51" t="str">
-        <f>IF(Details!L44&lt;&gt;"",SUM(Details!L44:P44),"")</f>
+        <f>IF(Performance!L44&lt;&gt;"",SUM(Performance!L44:P44),"")</f>
         <v/>
       </c>
       <c r="M44" s="47" t="str">
@@ -10039,7 +10051,7 @@
         <v/>
       </c>
       <c r="L45" s="51" t="str">
-        <f>IF(Details!L45&lt;&gt;"",SUM(Details!L45:P45),"")</f>
+        <f>IF(Performance!L45&lt;&gt;"",SUM(Performance!L45:P45),"")</f>
         <v/>
       </c>
       <c r="M45" s="47" t="str">
@@ -10057,7 +10069,7 @@
         <v/>
       </c>
       <c r="L46" s="51" t="str">
-        <f>IF(Details!L46&lt;&gt;"",SUM(Details!L46:P46),"")</f>
+        <f>IF(Performance!L46&lt;&gt;"",SUM(Performance!L46:P46),"")</f>
         <v/>
       </c>
       <c r="M46" s="47" t="str">
@@ -10075,7 +10087,7 @@
         <v/>
       </c>
       <c r="L47" s="51" t="str">
-        <f>IF(Details!L47&lt;&gt;"",SUM(Details!L47:P47),"")</f>
+        <f>IF(Performance!L47&lt;&gt;"",SUM(Performance!L47:P47),"")</f>
         <v/>
       </c>
       <c r="M47" s="47" t="str">
@@ -10093,7 +10105,7 @@
         <v/>
       </c>
       <c r="L48" s="51" t="str">
-        <f>IF(Details!L48&lt;&gt;"",SUM(Details!L48:P48),"")</f>
+        <f>IF(Performance!L48&lt;&gt;"",SUM(Performance!L48:P48),"")</f>
         <v/>
       </c>
       <c r="M48" s="47" t="str">
@@ -10111,7 +10123,7 @@
         <v/>
       </c>
       <c r="L49" s="51" t="str">
-        <f>IF(Details!L49&lt;&gt;"",SUM(Details!L49:P49),"")</f>
+        <f>IF(Performance!L49&lt;&gt;"",SUM(Performance!L49:P49),"")</f>
         <v/>
       </c>
       <c r="M49" s="47" t="str">
@@ -10129,7 +10141,7 @@
         <v/>
       </c>
       <c r="L50" s="51" t="str">
-        <f>IF(Details!L50&lt;&gt;"",SUM(Details!L50:P50),"")</f>
+        <f>IF(Performance!L50&lt;&gt;"",SUM(Performance!L50:P50),"")</f>
         <v/>
       </c>
       <c r="M50" s="47" t="str">
@@ -10147,7 +10159,7 @@
         <v/>
       </c>
       <c r="L51" s="51" t="str">
-        <f>IF(Details!L51&lt;&gt;"",SUM(Details!L51:P51),"")</f>
+        <f>IF(Performance!L51&lt;&gt;"",SUM(Performance!L51:P51),"")</f>
         <v/>
       </c>
       <c r="M51" s="47" t="str">
@@ -10165,7 +10177,7 @@
         <v/>
       </c>
       <c r="L52" s="51" t="str">
-        <f>IF(Details!L52&lt;&gt;"",SUM(Details!L52:P52),"")</f>
+        <f>IF(Performance!L52&lt;&gt;"",SUM(Performance!L52:P52),"")</f>
         <v/>
       </c>
       <c r="M52" s="47" t="str">
@@ -10183,7 +10195,7 @@
         <v/>
       </c>
       <c r="L53" s="51" t="str">
-        <f>IF(Details!L53&lt;&gt;"",SUM(Details!L53:P53),"")</f>
+        <f>IF(Performance!L53&lt;&gt;"",SUM(Performance!L53:P53),"")</f>
         <v/>
       </c>
       <c r="M53" s="47" t="str">
@@ -10201,7 +10213,7 @@
         <v/>
       </c>
       <c r="L54" s="51" t="str">
-        <f>IF(Details!L54&lt;&gt;"",SUM(Details!L54:P54),"")</f>
+        <f>IF(Performance!L54&lt;&gt;"",SUM(Performance!L54:P54),"")</f>
         <v/>
       </c>
       <c r="M54" s="47" t="str">
@@ -10219,7 +10231,7 @@
         <v/>
       </c>
       <c r="L55" s="51" t="str">
-        <f>IF(Details!L55&lt;&gt;"",SUM(Details!L55:P55),"")</f>
+        <f>IF(Performance!L55&lt;&gt;"",SUM(Performance!L55:P55),"")</f>
         <v/>
       </c>
       <c r="M55" s="47" t="str">
@@ -10237,7 +10249,7 @@
         <v/>
       </c>
       <c r="L56" s="51" t="str">
-        <f>IF(Details!L56&lt;&gt;"",SUM(Details!L56:P56),"")</f>
+        <f>IF(Performance!L56&lt;&gt;"",SUM(Performance!L56:P56),"")</f>
         <v/>
       </c>
       <c r="M56" s="47" t="str">
@@ -10255,7 +10267,7 @@
         <v/>
       </c>
       <c r="L57" s="51" t="str">
-        <f>IF(Details!L57&lt;&gt;"",SUM(Details!L57:P57),"")</f>
+        <f>IF(Performance!L57&lt;&gt;"",SUM(Performance!L57:P57),"")</f>
         <v/>
       </c>
       <c r="M57" s="47" t="str">
@@ -10273,7 +10285,7 @@
         <v/>
       </c>
       <c r="L58" s="51" t="str">
-        <f>IF(Details!L58&lt;&gt;"",SUM(Details!L58:P58),"")</f>
+        <f>IF(Performance!L58&lt;&gt;"",SUM(Performance!L58:P58),"")</f>
         <v/>
       </c>
       <c r="M58" s="47" t="str">
@@ -10291,7 +10303,7 @@
         <v/>
       </c>
       <c r="L59" s="51" t="str">
-        <f>IF(Details!L59&lt;&gt;"",SUM(Details!L59:P59),"")</f>
+        <f>IF(Performance!L59&lt;&gt;"",SUM(Performance!L59:P59),"")</f>
         <v/>
       </c>
       <c r="M59" s="47" t="str">
@@ -10309,7 +10321,7 @@
         <v/>
       </c>
       <c r="L60" s="51" t="str">
-        <f>IF(Details!L60&lt;&gt;"",SUM(Details!L60:P60),"")</f>
+        <f>IF(Performance!L60&lt;&gt;"",SUM(Performance!L60:P60),"")</f>
         <v/>
       </c>
       <c r="M60" s="47" t="str">
@@ -10327,7 +10339,7 @@
         <v/>
       </c>
       <c r="L61" s="51" t="str">
-        <f>IF(Details!L61&lt;&gt;"",SUM(Details!L61:P61),"")</f>
+        <f>IF(Performance!L61&lt;&gt;"",SUM(Performance!L61:P61),"")</f>
         <v/>
       </c>
       <c r="M61" s="47" t="str">
@@ -10345,7 +10357,7 @@
         <v/>
       </c>
       <c r="L62" s="51" t="str">
-        <f>IF(Details!L62&lt;&gt;"",SUM(Details!L62:P62),"")</f>
+        <f>IF(Performance!L62&lt;&gt;"",SUM(Performance!L62:P62),"")</f>
         <v/>
       </c>
       <c r="M62" s="47" t="str">
@@ -10363,7 +10375,7 @@
         <v/>
       </c>
       <c r="L63" s="51" t="str">
-        <f>IF(Details!L63&lt;&gt;"",SUM(Details!L63:P63),"")</f>
+        <f>IF(Performance!L63&lt;&gt;"",SUM(Performance!L63:P63),"")</f>
         <v/>
       </c>
       <c r="M63" s="47" t="str">
@@ -10381,7 +10393,7 @@
         <v/>
       </c>
       <c r="L64" s="51" t="str">
-        <f>IF(Details!L64&lt;&gt;"",SUM(Details!L64:P64),"")</f>
+        <f>IF(Performance!L64&lt;&gt;"",SUM(Performance!L64:P64),"")</f>
         <v/>
       </c>
       <c r="M64" s="47" t="str">
@@ -10399,7 +10411,7 @@
         <v/>
       </c>
       <c r="L65" s="51" t="str">
-        <f>IF(Details!L65&lt;&gt;"",SUM(Details!L65:P65),"")</f>
+        <f>IF(Performance!L65&lt;&gt;"",SUM(Performance!L65:P65),"")</f>
         <v/>
       </c>
       <c r="M65" s="47" t="str">
@@ -10417,7 +10429,7 @@
         <v/>
       </c>
       <c r="L66" s="51" t="str">
-        <f>IF(Details!L66&lt;&gt;"",SUM(Details!L66:P66),"")</f>
+        <f>IF(Performance!L66&lt;&gt;"",SUM(Performance!L66:P66),"")</f>
         <v/>
       </c>
       <c r="M66" s="47" t="str">
@@ -10435,7 +10447,7 @@
         <v/>
       </c>
       <c r="L67" s="51" t="str">
-        <f>IF(Details!L67&lt;&gt;"",SUM(Details!L67:P67),"")</f>
+        <f>IF(Performance!L67&lt;&gt;"",SUM(Performance!L67:P67),"")</f>
         <v/>
       </c>
       <c r="M67" s="47" t="str">
@@ -10453,7 +10465,7 @@
         <v/>
       </c>
       <c r="L68" s="51" t="str">
-        <f>IF(Details!L68&lt;&gt;"",SUM(Details!L68:P68),"")</f>
+        <f>IF(Performance!L68&lt;&gt;"",SUM(Performance!L68:P68),"")</f>
         <v/>
       </c>
       <c r="M68" s="47" t="str">
@@ -10471,7 +10483,7 @@
         <v/>
       </c>
       <c r="L69" s="51" t="str">
-        <f>IF(Details!L69&lt;&gt;"",SUM(Details!L69:P69),"")</f>
+        <f>IF(Performance!L69&lt;&gt;"",SUM(Performance!L69:P69),"")</f>
         <v/>
       </c>
       <c r="M69" s="47" t="str">
@@ -10489,7 +10501,7 @@
         <v/>
       </c>
       <c r="L70" s="51" t="str">
-        <f>IF(Details!L70&lt;&gt;"",SUM(Details!L70:P70),"")</f>
+        <f>IF(Performance!L70&lt;&gt;"",SUM(Performance!L70:P70),"")</f>
         <v/>
       </c>
       <c r="M70" s="47" t="str">
@@ -10507,7 +10519,7 @@
         <v/>
       </c>
       <c r="L71" s="51" t="str">
-        <f>IF(Details!L71&lt;&gt;"",SUM(Details!L71:P71),"")</f>
+        <f>IF(Performance!L71&lt;&gt;"",SUM(Performance!L71:P71),"")</f>
         <v/>
       </c>
       <c r="M71" s="47" t="str">
@@ -10525,7 +10537,7 @@
         <v/>
       </c>
       <c r="L72" s="51" t="str">
-        <f>IF(Details!L72&lt;&gt;"",SUM(Details!L72:P72),"")</f>
+        <f>IF(Performance!L72&lt;&gt;"",SUM(Performance!L72:P72),"")</f>
         <v/>
       </c>
       <c r="M72" s="47" t="str">
@@ -10543,7 +10555,7 @@
         <v/>
       </c>
       <c r="L73" s="51" t="str">
-        <f>IF(Details!L73&lt;&gt;"",SUM(Details!L73:P73),"")</f>
+        <f>IF(Performance!L73&lt;&gt;"",SUM(Performance!L73:P73),"")</f>
         <v/>
       </c>
       <c r="M73" s="47" t="str">
@@ -10561,7 +10573,7 @@
         <v/>
       </c>
       <c r="L74" s="51" t="str">
-        <f>IF(Details!L74&lt;&gt;"",SUM(Details!L74:P74),"")</f>
+        <f>IF(Performance!L74&lt;&gt;"",SUM(Performance!L74:P74),"")</f>
         <v/>
       </c>
       <c r="M74" s="47" t="str">
@@ -10579,7 +10591,7 @@
         <v/>
       </c>
       <c r="L75" s="51" t="str">
-        <f>IF(Details!L75&lt;&gt;"",SUM(Details!L75:P75),"")</f>
+        <f>IF(Performance!L75&lt;&gt;"",SUM(Performance!L75:P75),"")</f>
         <v/>
       </c>
       <c r="M75" s="47" t="str">
@@ -10597,7 +10609,7 @@
         <v/>
       </c>
       <c r="L76" s="51" t="str">
-        <f>IF(Details!L76&lt;&gt;"",SUM(Details!L76:P76),"")</f>
+        <f>IF(Performance!L76&lt;&gt;"",SUM(Performance!L76:P76),"")</f>
         <v/>
       </c>
       <c r="M76" s="47" t="str">
@@ -10615,7 +10627,7 @@
         <v/>
       </c>
       <c r="L77" s="51" t="str">
-        <f>IF(Details!L77&lt;&gt;"",SUM(Details!L77:P77),"")</f>
+        <f>IF(Performance!L77&lt;&gt;"",SUM(Performance!L77:P77),"")</f>
         <v/>
       </c>
       <c r="M77" s="47" t="str">
@@ -10633,7 +10645,7 @@
         <v/>
       </c>
       <c r="L78" s="51" t="str">
-        <f>IF(Details!L78&lt;&gt;"",SUM(Details!L78:P78),"")</f>
+        <f>IF(Performance!L78&lt;&gt;"",SUM(Performance!L78:P78),"")</f>
         <v/>
       </c>
       <c r="M78" s="47" t="str">
@@ -10651,7 +10663,7 @@
         <v/>
       </c>
       <c r="L79" s="51" t="str">
-        <f>IF(Details!L79&lt;&gt;"",SUM(Details!L79:P79),"")</f>
+        <f>IF(Performance!L79&lt;&gt;"",SUM(Performance!L79:P79),"")</f>
         <v/>
       </c>
       <c r="M79" s="47" t="str">
@@ -10669,7 +10681,7 @@
         <v/>
       </c>
       <c r="L80" s="51" t="str">
-        <f>IF(Details!L80&lt;&gt;"",SUM(Details!L80:P80),"")</f>
+        <f>IF(Performance!L80&lt;&gt;"",SUM(Performance!L80:P80),"")</f>
         <v/>
       </c>
       <c r="M80" s="47" t="str">
@@ -10687,7 +10699,7 @@
         <v/>
       </c>
       <c r="L81" s="51" t="str">
-        <f>IF(Details!L81&lt;&gt;"",SUM(Details!L81:P81),"")</f>
+        <f>IF(Performance!L81&lt;&gt;"",SUM(Performance!L81:P81),"")</f>
         <v/>
       </c>
       <c r="M81" s="47" t="str">
@@ -10705,7 +10717,7 @@
         <v/>
       </c>
       <c r="L82" s="51" t="str">
-        <f>IF(Details!L82&lt;&gt;"",SUM(Details!L82:P82),"")</f>
+        <f>IF(Performance!L82&lt;&gt;"",SUM(Performance!L82:P82),"")</f>
         <v/>
       </c>
       <c r="M82" s="47" t="str">
@@ -10723,7 +10735,7 @@
         <v/>
       </c>
       <c r="L83" s="51" t="str">
-        <f>IF(Details!L83&lt;&gt;"",SUM(Details!L83:P83),"")</f>
+        <f>IF(Performance!L83&lt;&gt;"",SUM(Performance!L83:P83),"")</f>
         <v/>
       </c>
       <c r="M83" s="47" t="str">
@@ -10741,7 +10753,7 @@
         <v/>
       </c>
       <c r="L84" s="51" t="str">
-        <f>IF(Details!L84&lt;&gt;"",SUM(Details!L84:P84),"")</f>
+        <f>IF(Performance!L84&lt;&gt;"",SUM(Performance!L84:P84),"")</f>
         <v/>
       </c>
       <c r="M84" s="47" t="str">
@@ -10759,7 +10771,7 @@
         <v/>
       </c>
       <c r="L85" s="51" t="str">
-        <f>IF(Details!L85&lt;&gt;"",SUM(Details!L85:P85),"")</f>
+        <f>IF(Performance!L85&lt;&gt;"",SUM(Performance!L85:P85),"")</f>
         <v/>
       </c>
       <c r="M85" s="47" t="str">
@@ -10777,7 +10789,7 @@
         <v/>
       </c>
       <c r="L86" s="51" t="str">
-        <f>IF(Details!L86&lt;&gt;"",SUM(Details!L86:P86),"")</f>
+        <f>IF(Performance!L86&lt;&gt;"",SUM(Performance!L86:P86),"")</f>
         <v/>
       </c>
       <c r="M86" s="47" t="str">
@@ -10795,7 +10807,7 @@
         <v/>
       </c>
       <c r="L87" s="51" t="str">
-        <f>IF(Details!L87&lt;&gt;"",SUM(Details!L87:P87),"")</f>
+        <f>IF(Performance!L87&lt;&gt;"",SUM(Performance!L87:P87),"")</f>
         <v/>
       </c>
       <c r="M87" s="47" t="str">
@@ -10813,7 +10825,7 @@
         <v/>
       </c>
       <c r="L88" s="51" t="str">
-        <f>IF(Details!L88&lt;&gt;"",SUM(Details!L88:P88),"")</f>
+        <f>IF(Performance!L88&lt;&gt;"",SUM(Performance!L88:P88),"")</f>
         <v/>
       </c>
       <c r="M88" s="47" t="str">
@@ -10831,7 +10843,7 @@
         <v/>
       </c>
       <c r="L89" s="51" t="str">
-        <f>IF(Details!L89&lt;&gt;"",SUM(Details!L89:P89),"")</f>
+        <f>IF(Performance!L89&lt;&gt;"",SUM(Performance!L89:P89),"")</f>
         <v/>
       </c>
       <c r="M89" s="47" t="str">
@@ -10849,7 +10861,7 @@
         <v/>
       </c>
       <c r="L90" s="51" t="str">
-        <f>IF(Details!L90&lt;&gt;"",SUM(Details!L90:P90),"")</f>
+        <f>IF(Performance!L90&lt;&gt;"",SUM(Performance!L90:P90),"")</f>
         <v/>
       </c>
       <c r="M90" s="47" t="str">
@@ -10867,7 +10879,7 @@
         <v/>
       </c>
       <c r="L91" s="51" t="str">
-        <f>IF(Details!L91&lt;&gt;"",SUM(Details!L91:P91),"")</f>
+        <f>IF(Performance!L91&lt;&gt;"",SUM(Performance!L91:P91),"")</f>
         <v/>
       </c>
       <c r="M91" s="47" t="str">
@@ -10885,7 +10897,7 @@
         <v/>
       </c>
       <c r="L92" s="51" t="str">
-        <f>IF(Details!L92&lt;&gt;"",SUM(Details!L92:P92),"")</f>
+        <f>IF(Performance!L92&lt;&gt;"",SUM(Performance!L92:P92),"")</f>
         <v/>
       </c>
       <c r="M92" s="47" t="str">
@@ -10903,7 +10915,7 @@
         <v/>
       </c>
       <c r="L93" s="51" t="str">
-        <f>IF(Details!L93&lt;&gt;"",SUM(Details!L93:P93),"")</f>
+        <f>IF(Performance!L93&lt;&gt;"",SUM(Performance!L93:P93),"")</f>
         <v/>
       </c>
       <c r="M93" s="47" t="str">
@@ -10921,7 +10933,7 @@
         <v/>
       </c>
       <c r="L94" s="51" t="str">
-        <f>IF(Details!L94&lt;&gt;"",SUM(Details!L94:P94),"")</f>
+        <f>IF(Performance!L94&lt;&gt;"",SUM(Performance!L94:P94),"")</f>
         <v/>
       </c>
       <c r="M94" s="47" t="str">
@@ -10939,7 +10951,7 @@
         <v/>
       </c>
       <c r="L95" s="51" t="str">
-        <f>IF(Details!L95&lt;&gt;"",SUM(Details!L95:P95),"")</f>
+        <f>IF(Performance!L95&lt;&gt;"",SUM(Performance!L95:P95),"")</f>
         <v/>
       </c>
       <c r="M95" s="47" t="str">
@@ -10957,7 +10969,7 @@
         <v/>
       </c>
       <c r="L96" s="51" t="str">
-        <f>IF(Details!L96&lt;&gt;"",SUM(Details!L96:P96),"")</f>
+        <f>IF(Performance!L96&lt;&gt;"",SUM(Performance!L96:P96),"")</f>
         <v/>
       </c>
       <c r="M96" s="47" t="str">
@@ -10975,7 +10987,7 @@
         <v/>
       </c>
       <c r="L97" s="51" t="str">
-        <f>IF(Details!L97&lt;&gt;"",SUM(Details!L97:P97),"")</f>
+        <f>IF(Performance!L97&lt;&gt;"",SUM(Performance!L97:P97),"")</f>
         <v/>
       </c>
       <c r="M97" s="47" t="str">
@@ -10993,7 +11005,7 @@
         <v/>
       </c>
       <c r="L98" s="51" t="str">
-        <f>IF(Details!L98&lt;&gt;"",SUM(Details!L98:P98),"")</f>
+        <f>IF(Performance!L98&lt;&gt;"",SUM(Performance!L98:P98),"")</f>
         <v/>
       </c>
       <c r="M98" s="47" t="str">
@@ -11011,7 +11023,7 @@
         <v/>
       </c>
       <c r="L99" s="51" t="str">
-        <f>IF(Details!L99&lt;&gt;"",SUM(Details!L99:P99),"")</f>
+        <f>IF(Performance!L99&lt;&gt;"",SUM(Performance!L99:P99),"")</f>
         <v/>
       </c>
       <c r="M99" s="47" t="str">
@@ -11029,7 +11041,7 @@
         <v/>
       </c>
       <c r="L100" s="51" t="str">
-        <f>IF(Details!L100&lt;&gt;"",SUM(Details!L100:P100),"")</f>
+        <f>IF(Performance!L100&lt;&gt;"",SUM(Performance!L100:P100),"")</f>
         <v/>
       </c>
       <c r="M100" s="47" t="str">
@@ -11047,7 +11059,7 @@
         <v/>
       </c>
       <c r="L101" s="67" t="str">
-        <f>IF(Details!L101&lt;&gt;"",SUM(Details!L101:P101),"")</f>
+        <f>IF(Performance!L101&lt;&gt;"",SUM(Performance!L101:P101),"")</f>
         <v/>
       </c>
       <c r="M101" s="49" t="str">

--- a/GREAT/GREAT-Repeated.xlsx
+++ b/GREAT/GREAT-Repeated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/GREAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{87CD7BE8-A243-4465-8572-FF1B16E50E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C546A5AF-8728-482F-8BD2-78D181739E4E}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{87CD7BE8-A243-4465-8572-FF1B16E50E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D42F1DA-355A-4408-AA8C-F740556B6D37}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1804,10 +1804,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2097,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
